--- a/uol_news_data.xlsx
+++ b/uol_news_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,8 +7321,8 @@
 Em dois dias, os agentes fizeram a solicitação de 200 serviços de alinhamento. Conforme a investigação, os policiais solicitaram no curto período de tempo 400 balanceamentos veiculares e a montagem de 80 pneus.
 As irregularidades foram constatadas após quebra de sigilo fiscal. Para a decretação da prisão preventiva, O Tribunal de Justiça Militar de São Paulo levou em conta o depoimento do dono de uma oficina mecânica, que disse ter atendido as solicitações com medo de represálias ou prejuízo ao estabelecimento.
 O dono de uma oficina disse, em depoimento, que repassou dinheiro aos agentes após serviços prestados. Ainda segundo a investigação, boa parte das solicitações de manutenções nem eram necessárias. As viaturas iam para conserto e, por vezes, voltavam para o pátio do jeito que chegaram.
-O UOL tenta contato com o Comando de Policiamento do Interior - 6 e com as defesas dos policiais envolvidos. Caso haja manifestação, a reportagem será atualizada. 
-A SSP-SP (Secretaria de Segurança Pública de São Paulo) informou na segunda-feira (26) que os policiais seguem detidos no Presídio Militar Romão Gomes. "A corregedoria da instituição também apura os fatos por meio de um inquérito policial militar (IPM)", informou a pasta.
+O UOL tenta contato com o Comando de Policiamento do Interior - 6. A SSP-SP (Secretaria de Segurança Pública de São Paulo) informou na segunda-feira (26) que os policiais seguem detidos no Presídio Militar Romão Gomes. "A corregedoria da instituição também apura os fatos por meio de um inquérito policial militar (IPM)", informou a pasta.
+A defesa dos acusados alega que "não há elemento que justifique a prisão cautelar". O escritório que defende os policiais, GR Santos Advogados, em nota enviada quarta-feira (28), aponta que há "ausência de contemporaneidade entre o início das investigações, em que se deram no ano de 2020, para com a prisão, na data de 24 de agosto de 2024" e que "em momento oportuno irão provar suas inocências".
 Falsificação de documentos
 A Corregedoria da Polícia Militar identificou, também, falsificação de documentos para os serviços. Para a manutenção e troca de peças, eram aplicados preços incoerentes aos serviços.
 Os militares em questão tinham pleno acesso às licitações e documentos para as manutenções, pois integravam a Seção de Motomecanização do CPI-6. Com isso, haveria fraude dos processos licitatórios para fracionar as despesas dos consertos e para transferência de pagamentos para empresas por serviços que sequer foram prestados.
@@ -7343,7 +7343,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2024-08-26T19:49:39-03:00</t>
+          <t>2024-08-28T15:33:44-03:00</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10253,12 +10253,31 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Marçal pede ajuda para tirar PCC do PRTB e diz que Bolsonaro não manda na direita</t>
+          <t>Marçal pede 'ajuda' para tirar PCC do PRTB e diz que Bolsonaro não manda na direita</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Após ser questionado sobre a possível ligação de membros de seu partido com a facção criminosa Primeiro Comando da Capital (PCC), o influenciador Pablo Marçal, candidato à Prefeitura de São Paulo pelo PRTB, pediu nesta segunda-feira, 26, ajuda para "limpar" a legenda de possíveis criminosos. Em entrevista ao canal CNN Brasil, Marçal propôs uma "campanha nacional" para higienizar o partido de uma suposta infiltração do crime organizado.Como relevou o Estadão, o ex-presidente estadual do PRTB de São Paulo Tarcísio Escobar de Almeida foi indiciado pela Polícia Civil por tráfico de drogas e associação ao crime organizado. De acordo com a investigação policial, Escobar trocava carros de luxos por cocaína para o PCC, financiando o tráfico de drogas e dividendo os seus lucros. Além disso, o presidente nacional da sigla, Leonardo Avalanche, disse, em áudio relevado pela Folha de S. Paulo, que mantém vínculo com o PCC.Adversários de Marçal têm utilizado o envolvimento de integrantes do partido do influenciador com o crime organizado para atacá-lo. O ex-coach, por sua vez, afirma que não tem nenhuma ligação com essas acusações e defende que as suspeitas sejam investigadas e os culpados, punidos."Sobre pessoas do PCC no meu partido, eu queria pedir à Polícia Civil, à Polícia Federal, à Polícia Militar, por favor, se vocês sabem que eles estão no meu partido, por que vocês não prendem esses caras?" afirmou Marçal em entrevista à CNN. "Quero fazer uma campanha nacional, me ajude a limpar o PRTB. Se o partido é pequeno, o que o PCC tá fazendo lá?".Eu quero que todo brasileiro que queira servir na política consiga ingressar com a sua candidatura sem partido político. Tô falando isso, eu já falei isso antes de ingressar no PRTB, e do tanto que vocês pegam no pé, eu faço dois pedidos. Por favor, prendam os bandidos, segundo pedido, me ajude, Brasil, queira a mesma coisa que eu tô querendo".Na entrevista, Marçal voltou a afirmar, sem apresentar provas, que dois de seus adversários são usuários de drogas. Ele disse que, no último debate eleitoral, que será transmitido pela TV Globo no dia 3 de outubro, vai apresentar provas de que o candidato do PSOL, Guilherme Boulos, já foi detido com drogas. O Estadão procurou a assessoria de Boulos, às 16h30 deste segunda-feira, 26, para que o candidato comentasse as declarações de Marçal, mas não houve retorno até a publicação desta reportagem.Bolsonaro 'curvou a cervical' por ValdemarMarçal também afirmou nesta segunda que o termo "bolsonarismo" foi criado pela esquerda para associar o crescimento do conservadorismo no País ao ex-presidente Jair Bolsonaro (PL). Marçal também declarou que nem ele nem Bolsonaro controlam esse movimento. Nas últimas semanas, o ex-coach tem ganhado força nas pesquisas eleitorais, especialmente entre o eleitorado bolsonarista, apesar de o ex-presidente apoiar formalmente a reeleição do prefeito Ricardo Nunes (MDB) na capital paulista."A esquerda criou o nome bolsonarismo para ver se faz com que todo mundo tenha a cara do presidente [Jair Bolsonaro]. Nós que somos defensores da liberdade, eu tenho um recado para todo mundo, qualquer brasileiro que estiver em qualquer lugar do mundo, a liberdade não tem dono. Não é o Pablo Marçal que manda nisso, não é Bolsonaro que manda nisso", disse o influenciador, acrescentando que, "por conta do Valdemar Costa Neto [presidente nacional do PL], o Bolsonaro teve que curvar a [coluna] cervical [ao prefeito Ricardo Nunes]".Apesar das declarações, o candidato do PRTB afirmou que "não vai se levantar" contra Bolsonaro, a quem considera um "grande líder". Recentemente, Marçal e Bolsonaro protagonizaram um desentendimento no Instagram, em que o ex-presidente respondeu ao influenciador com ironia. Questionado sobre o episódio, Marçal, sem apresentar provas, afirmou que foi o vereador carioca Carlos Bolsonaro (PL), filho do ex-presidente, quem publicou o comentário. Marçal ainda chamou Carlos de "retardado" e disse que ele prejudicou Bolsonaro na eleição passada.O Estadão procurou a assessoria de Jair Bolsonaro para que o ex-presidente comentasse as declarações de Pablo Marçal. No entanto, não houve retorno até a publicação desta reportagem.Bate-boca com jornalistaDurante a entrevista, Pablo Marçal interrompeu a jornalista e analista política Clarissa Oliveira ao ser questionado sobre sua condenação a quatro anos e cinco meses de prisão por participação em um esquema que desviava dinheiro de contas bancárias. O caso ocorreu nos anos 2000, e a condenação foi proferida em 2010. Marçal recorreu da sentença e não cumpriu pena, pois a condenação acabou prescrevendo.O bate-boca iniciado pelo influenciador serviu para desviar o foco da pergunta, enquanto ele repetia a versão de que o caso ocorreu há mais de 20 anos, alegando que foi vítima de uma injustiça e que, na época, não tinha dinheiro para pagar um advogado. Como mostrou o Estadão, além de capturar e-mails de vítimas para a quadrilha de furto de contas bancárias, Marçal usava na época dos golpes carros cedidos pela organização para passear.Outro momento de tensão na entrevista ocorreu quando o ex-coach foi questionado sobre a viabilidade de sua proposta de implementar teleféricos em São Paulo. Marçal afirmou que, por apresentar ideias diferentes das dos outros candidatos, tem sido alvo de críticas. "Claro que [o teleférico] é [factível]", disse após questionado sobre o tema. "[Ele é] Cinco vezes mais barato do que fazer buraco de metrô no chão, é ecológico, silencioso, não para, e é para honrar as comunidades".Suspensão de redes sociaisDesde o fim de semana, Pablo Marçal está com suas contas nas redes sociais temporariamente suspensas por decisão judicial. O Tribunal Regional Eleitoral de São Paulo (TRE-SP) atendeu a um pedido do PSB, partido da candidata Tabata Amaral, que alegou que Marçal estaria cometendo abuso de poder econômico ao pagar para que terceiros produzissem vídeos curtos e descontextualizados - os chamados cortes - para impulsionar sua candidatura nas redes.Os advogados de Pablo Marçal entraram com um recurso para reverter a decisão liminar. Durante a entrevista, o influenciador reiterou que não cometeu nenhuma ilegalidade e afirmou que não coloca dinheiro próprio na campanha. "As pessoas vivem disso [de cortes]. A plataforma TikTok paga por visualização, o YouTube paga por visualização. Esse povo é que devia me pagar por usar minha imagem, você não está entendendo. Não fui eu que coloquei dinheiro nisso", declarou.</t>
+          <t>Após ser questionado sobre a possível ligação de membros de seu partido com a facção criminosa PCC (Primeiro Comando da Capital), o influenciador Pablo Marçal, candidato à Prefeitura de São Paulo pelo PRTB, pediu nesta segunda-feira (26) ajuda para "limpar" a legenda de possíveis criminosos.
+Em entrevista ao canal CNN Brasil, Marçal propôs uma "campanha nacional" para higienizar o partido de uma suposta infiltração do crime organizado.
+Como relevou o Estadão, o ex-presidente estadual do PRTB de São Paulo Tarcísio Escobar de Almeida foi indiciado pela Polícia Civil por tráfico de drogas e associação ao crime organizado. De acordo com a investigação policial, Escobar trocava carros de luxos por cocaína para o PCC, financiando o tráfico de drogas e dividendo os seus lucros. Além disso, o presidente nacional da sigla, Leonardo Avalanche, disse, em áudio relevado pela Folha de S.Paulo, que mantém vínculo com o PCC.
+Adversários de Marçal têm utilizado o envolvimento de integrantes do partido do influenciador com o crime organizado para atacá-lo. O ex-coach, por sua vez, afirma que não tem nenhuma ligação com essas acusações e defende que as suspeitas sejam investigadas e os culpados, punidos.
+"Sobre pessoas do PCC no meu partido, eu queria pedir à Polícia Civil, à Polícia Federal, à Polícia Militar, por favor, se vocês sabem que eles estão no meu partido, por que vocês não prendem esses caras?" afirmou Marçal em entrevista à CNN.
+Quero fazer uma campanha nacional, me ajude a limpar o PRTB. Se o partido é pequeno, o que o PCC tá fazendo lá?.Pablo Marçal (PRTB)
+Eu quero que todo brasileiro que queira servir na política consiga ingressar com a sua candidatura sem partido político. Tô falando isso, eu já falei isso antes de ingressar no PRTB, e do tanto que vocês pegam no pé, eu faço dois pedidos. Por favor, prendam os bandidos, segundo pedido, me ajude, Brasil, queira a mesma coisa que eu tô querendo".
+Na entrevista, Marçal voltou a afirmar, sem apresentar provas, que dois de seus adversários são usuários de drogas. Ele disse que, no último debate eleitoral, que será transmitido pela TV Globo no dia 3 de outubro, vai apresentar provas de que o candidato do PSOL, Guilherme Boulos, já foi detido com drogas. O Estadão procurou a assessoria de Boulos, às 16h30 deste segunda-feira para que o candidato comentasse as declarações de Marçal, mas não houve retorno até a publicação desta reportagem.
+Bolsonaro 'curvou a cervical' por Valdemar
+Marçal também afirmou nesta segunda que o termo "bolsonarismo" foi criado pela esquerda para associar o crescimento do conservadorismo no país ao ex-presidente Jair Bolsonaro (PL). Marçal também declarou que nem ele nem Bolsonaro controlam esse movimento. Nas últimas semanas, o ex-coach tem ganhado força nas pesquisas eleitorais, especialmente entre o eleitorado bolsonarista, apesar de o ex-presidente apoiar formalmente a reeleição do prefeito Ricardo Nunes (MDB) na capital paulista.
+"A esquerda criou o nome bolsonarismo para ver se faz com que todo mundo tenha a cara do presidente [Jair Bolsonaro]. Nós que somos defensores da liberdade, eu tenho um recado para todo mundo, qualquer brasileiro que estiver em qualquer lugar do mundo, a liberdade não tem dono. Não é o Pablo Marçal que manda nisso, não é Bolsonaro que manda nisso", disse o influenciador, acrescentando que, "por conta do Valdemar Costa Neto [presidente nacional do PL], o Bolsonaro teve que curvar a [coluna] cervical [ao prefeito Ricardo Nunes]".
+Apesar das declarações, o candidato do PRTB afirmou que "não vai se levantar" contra Bolsonaro, a quem considera um "grande líder". Recentemente, Marçal e Bolsonaro protagonizaram um desentendimento no Instagram, em que o ex-presidente respondeu ao influenciador com ironia. Questionado sobre o episódio, Marçal, sem apresentar provas, afirmou que foi o vereador carioca Carlos Bolsonaro (PL), filho do ex-presidente, quem publicou o comentário. Marçal ainda chamou Carlos de "retardado" e disse que ele prejudicou Bolsonaro na eleição passada.
+O Estadão procurou a assessoria de Bolsonaro para que o ex-presidente comentasse as declarações de Pablo Marçal. No entanto, não houve retorno até a publicação desta reportagem.
+Bate-boca com jornalista
+Durante a entrevista, Pablo Marçal interrompeu a jornalista e analista política Clarissa Oliveira ao ser questionado sobre sua condenação a quatro anos e cinco meses de prisão por participação em um esquema que desviava dinheiro de contas bancárias. O caso ocorreu nos anos 2000, e a condenação foi proferida em 2010. Marçal recorreu da sentença e não cumpriu pena, pois a condenação acabou prescrevendo.
+O bate-boca iniciado pelo influenciador serviu para desviar o foco da pergunta, enquanto ele repetia a versão de que o caso ocorreu há mais de 20 anos, alegando que foi vítima de uma injustiça e que, na época, não tinha dinheiro para pagar um advogado. Como mostrou o Estadão, além de capturar e-mails de vítimas para a quadrilha de furto de contas bancárias, Marçal usava na época dos golpes carros cedidos pela organização para passear.
+Outro momento de tensão na entrevista ocorreu quando o ex-coach foi questionado sobre a viabilidade de sua proposta de implementar teleféricos em São Paulo. Marçal afirmou que, por apresentar ideias diferentes das dos outros candidatos, tem sido alvo de críticas. "Claro que [o teleférico] é [factível]", disse após questionado sobre o tema. "[Ele é] Cinco vezes mais barato do que fazer buraco de metrô no chão, é ecológico, silencioso, não para, e é para honrar as comunidades".
+Suspensão de redes sociais
+Desde o fim de semana, Marçal está com suas contas nas redes sociais temporariamente suspensas por decisão judicial. O Tribunal Regional Eleitoral de São Paulo (TRE-SP) atendeu a um pedido do PSB, partido da candidata Tabata Amaral, que alegou que Marçal está cometendo abuso de poder econômico ao pagar para que terceiros produzissem vídeos curtos e descontextualizados — os chamados cortes — para impulsionar sua candidatura nas redes.
+Os advogados de Pablo Marçal entraram com um recurso para reverter a decisão liminar. Durante a entrevista, o influenciador reiterou que não cometeu nenhuma ilegalidade e afirmou que não coloca dinheiro próprio na campanha. "As pessoas vivem disso [de cortes]. A plataforma TikTok paga por visualização, o YouTube paga por visualização. Esse povo é que devia me pagar por usar minha imagem, você não está entendendo. Não fui eu que coloquei dinheiro nisso", declarou.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -10267,7 +10286,11 @@
           <t>2024-08-26T19:29:00-03:00</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2024-08-26T20:36:22-03:00</t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
         <is>
           <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/26/marcal-pede-ajuda-para-tirar-pcc-do-prtb-e-diz-que-bolsonaro-nao-manda-na-direita.htm</t>
@@ -10451,16 +10474,18 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Quina sorteia prêmio acumulado de R$ 11,8 milhões; confira os números</t>
+          <t>Quina acumula e prêmio sobe para R$ 13,5 mihões; confira dezenas sorteadas</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>A Caixa realizou hoje o sorteio do concurso 6517 da Quina.
+          <t>Ninguém acertou as cinco dezenas sorteadas hoje no concurso 6517 da Quina.
 O que aconteceu:
 Os números sorteados foram 03-26-28-49-74.
-O prêmio é de R$ 11.877.805,70.
-A Caixa ainda não divulgou se houve apostas vencedoras. Assim que o fizer, o texto será atualizado.
+O próximo concurso será realizado na terça, com prêmio estimado de R$ 13,5 milhões. 
+Houve 95 jogos vencedores com quatro acertos; cada um deles ganhou R$ 6.874,72. 
+6.967 apostas acertaram três números e faturaram R$ 89,27 cada uma. 
+167.809 apostas com dois acertos levaram R$ 3,70. 
 Como participar do próximo sorteio da Quina?
 Você pode escolher de cinco a 15 números de 1 a 80. As apostas precisam ser feitas até uma hora antes do concurso, ou seja, as lotéricas credenciadas e o site oficial da Caixa vão registrar os jogos até as 19h (horário de Brasília) do dia do sorteio.
 Quanto custa a aposta da Quina?
@@ -10477,7 +10502,11 @@
           <t>2024-08-26T20:02:28-03:00</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2024-08-26T20:44:13-03:00</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>https://noticias.uol.com.br/ultimas-noticias/2024/08/26/quina-concurso-6517-sorteio-26-de-agosto.htm</t>
@@ -10532,10 +10561,28 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>O secretário-geral das Nações Unidas, António Guterres, lançou, nesta terça-feira (noite de segunda, 26, em Brasília), um "SOS mundial" em uma cúpula de ilhas do Pacífico, onde apresentou um relatório que revela uma elevação acelerada do nível do mar na região.
+          <t>O secretário-geral das Nações Unidas, António Guterres, lançou, nesta terça-feira (27), um "SOS mundial" em uma cúpula de ilhas do Pacífico, onde apresentou um relatório que revela uma elevação acelerada do nível do mar na região.
 "Estou em Tonga para emitir um SOS mundial - Salvem Nossos Mares - sobre a rápida elevação dos níveis do mar. Uma catástrofe em escala mundial está colocando em risco este paraíso do Pacífico", declarou.
-sft/arb/md/mas/mel/mvv
-© Agence France-Presse</t>
+As ilhas do Pacífico, pouco povoadas e com pouca indústria pesada, geram menos de 0,02% das emissões globais anuais de CO2.
+No entanto, este conjunto de ilhas vulcânicas e atóis de coral está cada vez mais ameaçado pela elevação do nível dos oceanos.
+Desde a década de 1990, a Organização Meteorológica Mundial (OMM) monitora os mareógrafos instalados nas praias do Pacífico.
+O informe divulgado por esta organização de monitoramento climático revela que o nível dos mares subiu 15 centímetros nos últimos 30 anos em algumas partes do Pacífico.
+Segundo o relatório, a média mundial foi de 9,4 centímetros.
+"As populações, economias e ecossistemas de toda a região sudoeste do Pacífico são muito afetadas pelos efeitos em cascata da mudança climáticas", alertou no documento a secretária-geral da OMM, a argentina Celeste Saulo.
+"É cada vez mais evidente que estamos ficando sem tempo para reverter a maré", acrescentou.
+"Uma questão de sobrevivência"
+O aumento do nível do mar em alguns locais, como Kiribati e Ilhas Cook, foi similar ou um pouco abaixo da média mundial.
+Mas em outros lugares, como as capitais de Samoa e Fiji, a elevação foi quase o triplo da média.
+Em Tuvalu, a faixa de terra diminuiu tanto que as crianças usam a pista do aeroporto internacional como área para brincadeiras.
+Segundo os cientistas, Tuvalu, um país insular de baixa altitude, poderia desaparecer nos próximos 30 anos, mesmo em um cenário de aquecimento global moderado.
+"É um desastre atrás do outro, e estamos perdendo a capacidade de reconstruir, de suportar outro ciclone ou outra inundação", disse à AFP Maina Talia, ministro do Clima de Tuvalu.
+"Não devemos fechar os olhos às mudanças climáticas e ao aumento do mar", insistiu. "Para os Estados insulares de baixa altitude, é uma questão de sobrevivência", acrescentou.
+Com sua localização remota e reduzido peso econômico, a angústia destes países foi ignorada no passado, mas os cientistas apresentam a região como um alerta do que pode acontecer em outras partes do planeta.
+"O novo relatório confirma o que os governantes Pacífico afirmam há anos", declarou à AFP o pesquisador australiano do clima Wes Morgan.
+"A mudança climática constitui a principal ameaça em termos de segurança. As nações do Pacífico estão envolvidas em um combate por sua sobrevivência e acabar com a poluição é essencial para o seu futuro", acrescentou.
+Cercados por milhões de quilômetros quadrados de oceano, os países do Pacífico Sul estão particularmente ameaçados pelo aumento do nível do mar, pois a maioria dos seus habitantes vive a menos de cinco quilômetros da costa, segundo a ONU.
+Além de submergir a terra, o fenômeno reduz as fontes essenciais de água e alimentos.
+E o aumento do nível do mar não é a única ameaça. A temperatura cada vez mais elevada dos oceanos também desencadeia catástrofes naturais mais violentos e acidifica a água, o que afeta a cadeia alimentar marinha.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
@@ -10674,7 +10721,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>O ex-presidente do Banco Central (BC) Armínio Fraga doou R$ 100 mil para a campanha da candidata à prefeitura de São Paulo, Tabata Amaral (PSB). O economista, que comandou o BC de 1999 a 2003, na gestão Fernando Henrique Cardoso, já destinou neste ano R$ 360 mil reais para sete candidaturas em São Paulo, Rio de Janeiro e Embu das Artes (SP).É a segunda vez que ele doa recursos para a candidata: na primeira, destinou R$ 100 mil para a campanha de reeleição de Tabata na Câmara, em 2022. Armínio faz parte do grupo de conselheiros da parlamentar e atuou diretamente na montagem do plano de governo de Tabata para a prefeitura.A primeira contribuição de Armínio com uma candidatura neste ano foi o envio de R$ 30 mil para a campanha do vereador Abidan Henrique (PSB), que concorre à reeleição na Câmara Municipal de Embu das Artes, na região metropolitana de São Paulo. Único nome de oposição ao atual prefeito da cidade, Ney Santos (Republicanos), Abidan chegou a ser cassado após denunciar o prefeito, mas teve seu mandato restituído pelo STF.Neste ano, Armínio também contribuiu com cinco candidaturas à Câmara Municipal do Rio de Janeiro. O economista doou R$ 30 mil para a candidatura da professora de matemática da UFRJ Tatiana Roque, do PSB. Além dela, os candidatos Flávio Valle, Joyce Trindade e Salvino Oliveira - do PSD, mesmo partido do prefeito Eduardo Paes - receberam R$ 50 mil cada. O vereador Pedro Duarte, do Novo, que disputa a reeleição, também recebeu R$ 50 mil de Armínio.</t>
+          <t>O ex-presidente do BC (Banco Central) Armínio Fraga doou R$ 100 mil para a campanha da candidata à prefeitura de São Paulo Tabata Amaral (PSB).
+O economista, que comandou o BC de 1999 a 2003, na gestão Fernando Henrique Cardoso, já destinou neste ano R$ 360 mil reais para sete candidaturas em São Paulo, Rio de Janeiro e Embu das Artes (SP).
+É a segunda vez que ele doa recursos para a candidata: na primeira, destinou R$ 100 mil para a campanha de reeleição de Tabata na Câmara, em 2022. Armínio faz parte do grupo de conselheiros da parlamentar e atuou diretamente na montagem do plano de governo de Tabata para a prefeitura.
+A primeira contribuição de Armínio com uma candidatura neste ano foi o envio de R$ 30 mil para a campanha do vereador Abidan Henrique (PSB), que concorre à reeleição na Câmara Municipal de Embu das Artes, na região metropolitana de São Paulo. Único nome de oposição ao atual prefeito da cidade, Ney Santos (Republicanos), Abidan chegou a ser cassado após denunciar o prefeito, mas teve seu mandato restituído pelo STF.
+Neste ano, Armínio também contribuiu com cinco candidaturas à Câmara Municipal do Rio de Janeiro. O economista doou R$ 30 mil para a candidatura da professora de matemática da UFRJ Tatiana Roque, do PSB. Além dela, os candidatos Flávio Valle, Joyce Trindade e Salvino Oliveira — do PSD, mesmo partido do prefeito Eduardo Paes — receberam R$ 50 mil cada um. O vereador Pedro Duarte, do Novo, que disputa a reeleição, também recebeu R$ 50 mil de Armínio.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -10683,7 +10734,11 @@
           <t>2024-08-26T19:54:00-03:00</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2024-08-26T20:42:10-03:00</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
           <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/26/ex-bc-doa-r-100-mil-a-campanha-de-tabata-e-r-260-mil-a-outros-6-candidatos.htm</t>
@@ -10818,17 +10873,23 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Veja números sorteados da Dupla Sena; prêmio estimado é de R$ 150 mil</t>
+          <t>Prêmio da Dupla Sena acumula e vai a R$ 350 mil; confira as dezenas</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>A Dupla Sena realizou hoje o sorteio do concurso 2706.
+          <t>Ninguém acertou as dezenas sorteadas hoje no concurso 2706 da Dupla Sena.
 O que aconteceu:
 No primeiro sorteio, as dezenas foram 07-19-25-36-48-50.
-No segundo sorteio, saíram os seguintes números: 19-28-32-38-45-50.
-O prêmio estimado é de R$ 150 mil.
-A Caixa ainda não divulgou se houve apostas vencedoras. Assim que o fizer, o texto será atualizado.
+Onze apostas acertaram cinco números e levam R$ 3.504,83. 
+639 apostas acertaram quatro números e recebem R$ 68,95. 
+10.423 jogos vencedores fizeram três acertos e ganham R$ 2,11. 
+Segundo sorteio:
+As dezenas sorteadas foram 19-28-32-38-45-50. 
+Nove apostas acertaram cinco números e levam R$ 3.855,32. 
+410 jogos vencedores com quatro dezenas ganham R$ 107,46. 
+7.798 apostas fizeram três acertos, com prêmio de R$ 2,82. 
+O próximo concurso será realizado na quarta, com prêmio estimado de R$ 350 mil. 
 Quanto custa apostar na Dupla Sena?
 Depende de quantos números você pretende colocar no jogo. A aposta mínima custa R$ 2,50, e você tem direito de escolher seis dezenas de 1 a 50. Se quiser colocar um número a mais para aumentar as chances de acerto, o preço do jogo sobe para R$ 17,50. No cenário mais caro, com 15 números no volante, a aposta chega a custar R$ 12.512,50.
 E quais são as minhas chances de ganhar na Dupla Sena?
@@ -10841,7 +10902,11 @@
           <t>2024-08-26T20:13:41-03:00</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2024-08-26T20:53:26-03:00</t>
+        </is>
+      </c>
       <c r="G231" t="inlineStr">
         <is>
           <t>https://noticias.uol.com.br/ultimas-noticias/2024/08/26/dupla-sena-concurso-2706-sorteio-26-de-agosto.htm</t>
@@ -10859,16 +10924,21 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Com prêmio acumulado de R$ 6,1 milhões, veja dezenas sorteadas da Lotomania</t>
+          <t>Ninguém acerta Lotomania e prêmio chega a R$ 7 milhões; veja os números</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>A Lotomania realizou hoje o sorteio das dezenas do concurso 2665.
+          <t>Ninguém acertou as 20 dezenas sorteadas hoje no concurso 2665 da Lotomania.
 O que aconteceu:
 Os números sorteados foram 10-13-28-43-46-47-49-53-58-61-69-71-74-76-78-80-83-90-96-98.
-O prêmio é de R$ 6.162.246,35.
-A Caixa ainda não divulgou se houve apostas vencedoras. Assim que o fizer, o texto será atualizado.
+O próximo concurso será realizado na quarta, com prêmio estimado de R$ 7 milhões. 
+Cinco apostas acertaram 19 números; cada uma levou R$ 57.925,76. 
+69 apostas fizeram 18 acertos, com prêmio de R$ 2.623,45. 
+Houve 751 apostas vencedoras com 17 dezenas. Cada uma recebe R$ 241,03. 
+4.556 jogos vencedores fizeram 16 acertos e ganham R$ 39,73. 
+18.611 apostas vencedoras acertaram 15 números, com prêmio de R$ 9,72. 
+Houve uma aposta com nenhum acerto; ela leva R$ 144.814,44. 
 Lotomania: Como faço para participar do próximo sorteio?
 Basta fazer uma aposta de 50 números nas lotéricas credenciadas pela Caixa, ou no site especial de loterias do banco. Os maiores prêmios são destinados para os bilhetes que acertam 20 e 19 números, ou erram todos as dezenas sorteadas. As apostas devem ser feitas até uma hora antes do sorteio, que normalmente ocorre às 20h (horário de Brasília).
 Quanto custa a aposta?
@@ -10883,7 +10953,11 @@
           <t>2024-08-26T20:17:40-03:00</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:08:43-03:00</t>
+        </is>
+      </c>
       <c r="G232" t="inlineStr">
         <is>
           <t>https://noticias.uol.com.br/ultimas-noticias/2024/08/26/lotomania-concurso-2665-sorteio-26-de-agosto.htm</t>
@@ -10939,6 +11013,1758 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Presidente da Apae atirou e matou funcionária da entidade, diz polícia</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Cláudia Regina da Rocha Lobo, secretária-executiva da Apae de Bauru (SP), foi assassinada pelo então presidente da entidade, Roberto Franceschetti Filho, no último dia 6, afirmou a Polícia Civil nesta segunda-feira (26), com base em dados da investigação.
+O que aconteceu
+O inquérito segue em andamento, mas a principal hipótese é de que a morte tenha relação com questões financeiras, disse ao UOL o delegado Cledson do Nascimento. "O próprio Roberto indicou que ele estava fazendo retiradas de valores da instituição e repassando para ela. Temos informações também que ela que o indicou como presidente", disse. A investigação aponta fortes indícios de que o assassinato ocorreu em meio a um "rombo" no caixa da Apae, má gestão da entidade e conflitos de interesse entre os dois.
+Em depoimento, o suspeito disse que os adiantamentos supostamente solicitados por Cláudia seriam para ajudar um parente que havia sido preso e estava devendo. Uma semana antes do desaparecimento, ela teria pedido R$ 40 mil, mas ele não teria liberado.
+Os policiais também encontraram mensagens em que a vítima ressalta que foi ela a responsável por indicar Roberto como presidente. "Algumas informações apontam que isso poderia ter sido 'colocado em xeque', querendo tirá-lo da função", explicou o delegado.
+Vídeo flagra movimentação
+Imagens de uma câmera de segurança em Novo Jardim Pagani deram "rumo decisivo para a investigação", diz polícia. O vídeo mostra Cláudia deixando o banco de motorista e indo para o banco de trás, onde foi encontrada a maior quantidade de sangue no carro, enquanto Roberto assume o volante.
+O presidente da Apae teria dado um tiro na secretária pouco depois de trocarem de lugar no carro. Outras câmeras de segurança mostram Roberto seguindo pela Rodovia Cezário José de Castilho para se desfazer do corpo, de acordo com a investigação.
+Roberto indicou onde descartou corpo, segundo Polícia Civil de São Paulo. Em uma conversa preliminar com os policiais, após ser preso temporariamente no dia 15, o suspeito teria indicado que jogou o corpo da vítima em um local onde a Apae incinera papéis e outros materiais. A geolocalização e movimentação do celular dele indicaram que o presidente da entidade passou pelo local.
+Porém, em depoimento formal no dia 19, o presidente da entidade negou o crime. Ele disse que apenas levou Cláudia para entregar uma quantia no bairro Mary Dota e, depois, ela o deixou na Avenida Nuno de Assis.
+Descarte do corpo
+Outro suspeito relaciona Roberto ao crime. Um funcionário responsável pelo setor de frota e compras da Apae de Bauru, que seria "homem de confiança de Roberto", afirmou que o presidente o ameaçou para descartar o corpo de Cláudia e limpar o carro.
+No dia 10, esse funcionário voltou com a polícia ao local onde queimou o corpo da vítima. Foi nesse momento que os agentes encontraram fragmentos de ossos humanos, ainda em análise. Também foi encontrado um par de óculos, reconhecido por parentes como sendo de Cláudia.
+O laudo pericial confirmou que a pistola apreendida na casa de Roberto é compatível com a bala encontrada no carro.
+O UOL tenta contato com a defesa de Roberto Franceschetti Filho. Se houver resposta, o texto será atualizado.
+A Apae de Bauru diz que colabora com a investigação. Em uma nota divulgada no último dia 21, a entidade diz que os "atendimentos tão essenciais ao público da Apae não estão relacionados aos fatos e permanecem garantidos". A Apae também informou que abriu uma sindicância para apurar supostas irregularidades financeiras, também investigadas pela Polícia Civil.</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Pedro Vilas Boas
+Luana Takahashi</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2024-08-26T16:15:00-03:00</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2024-08-26T23:20:46-03:00</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2024/08/26/presidente-da-apae-atirou-e-matou-funcionaria-da-entidade-diz-policia.htm</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Defesa acusa filho de Moraes de ter dado tapa na nuca de suposto agressor</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Laudo produzido pela defesa do empresário Roberto Mantovani diz que Alexandre Barci, filho do ministro do STF (Supremo Tribunal Federal) Alexandre de Moraes, teria dado um tapa na nuca do empresário antes do episódio de agressão ocorrido no Aeroporto de Fiumicino, em Roma, em 14 de junho de 2023.
+O que aconteceu
+Laudo revisado pelo perito Ricardo Molina se baseia em imagens de câmaras de segurança do aeroporto. Após analisar os vídeos na presença de servidores do STF, o perito diz ter identificado uma agressão de Barci a Mantovani anterior àquelas cometidas pelo empresário e apresentadas no relatório produzido pela PF (Polícia Federal).
+Documento enviado ao STF. O laudo da perícia foi anexado pela defesa, representada pelo advogado Ralph Tórtima Stettinger Filho, e enviado ao ministro Dias Toffoli, relator do caso no STF. 
+Defesa e perícia questionam relatório da PF. De acordo com perito, o fato de o laudo da PF ter sido produzido por um agente comum e não alguém especializado em perícia faz do texto "mera ilustração de uma narrativa baseada nos depoimentos de Alexandre de Moraes e seus familiares".
+É possível afirmar que não fora Roberto quem "desferiu tapa no rosto do filho do Ministro Alexandre de Moraes, o Sr. Alexandre Barci de Moraes", e, sim, Alexandre Barci de Moraes quem desfere um tapa na nuca de Roberto, o pegando de surpresa, momento em que ele (Roberto) levanta sua mão em ação de defesa, resvalando sua mão os óculos do agressor. 
+Trecho de laudo pericial apresentado pela defesa do empresário
+Imagens seriam parciais. Segundo o laudo da defesa, o parecer da PF é equivocado, "pois omite fato bastante evidente contido nas imagens do aeroporto de Roma". Além de Molina também assina o laudo Mauricio Tadeu dos Santos, apontado como perito relator.
+O relatório nº 004/23 não pode ser considerado sequer um laudo técnico, sendo antes uma mera ilustração de uma narrativa baseada nos depoimentos de Alexandre de Moraes e seus familiares e não uma análise realmente técnica, objetiva e isenta da realidade dos fatos. Na verdade, as inconsistências e omissões no referido relatório não causam surpresa, visto que o responsável pela sua feitura, CLÉSIO LEÃO DE CARVALHO é um agente da Polícia Federal e não um Perito da mesma corporação.Trecho de laudo pericial apresentado pela defesa de empresário
+Indiciamento por calúnia. A Polícia Federal indiciou três pessoas pela agressão à família do ministro  Alexandre de Moraes no aeroporto de Roma, em junho deste ano. Além de Mantovani foram indiciados sua esposa, Andrea Munarão e seu genro, Alex Bignotto.
+PF mudou entendimento. Em fevereiro, o relatório da PF concluiu que Barci foi vítima de "injúria real" praticada por parte de Mantovani, mas não havia indiciado ninguém. Decisão que foi revista em junho.
+Imagens inicialmente divulgadas mostravam momento em que Mantovani Filho se dirige a Barci e o atinge no rosto. O movimento derruba os óculos da face do filho de Moraes. O empresário aparece acompanhado de sua esposa, Andrea Munarão.
+PGR defende Moraes. Na denúncia enviada ao STF, a Procuradoria Geral da República afirma não haver dúvidas de que ofensas foram dirigidas a Moraes pelo empresário, sua esposa e seu genro, Alex Bignotto.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Saulo Pereira Guimarães</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:18:49-03:00</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2024/08/26/filho-de-moraes-agrediu-primeiro-em-roma-aponta-perito-da-defesa.htm</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Vídeo: PM é agredido por policiais civis com socos e mata-leão em bar de SP</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Um policial militar foi agredido por policiais civis com socos e mata-leão na frente de um bar no Jardim São Paulo, na zona norte da capital paulista, na quarta-feira (21). A Corregedoria da Polícia Civil investiga o caso.
+Na denúncia, obtida pela coluna, o PM de 46 anos contou que parou o carro onde estava com a esposa em frente ao Terraço Urbano Bar e Restaurante. O homem desembarcou e passou a conversar com a esposa, que estava no banco do motorista, enquanto se apoiava na janela do automóvel.
+Vídeo das câmeras de segurança mostra quando dois homens, e depois um terceiro, se aproximam. Segundo o policial militar, os três disseram que eram policiais civis do Deic (Departamento Estadual de Investigações Criminais), questionaram se o agente era policial e se estava armado. Então, o PM se apresentou e exibiu a sua identidade funcional, informando que estava armado e afirmando que atua na 1ª Companhia do 5º BPM/M (Batalhão de Polícia Militar Metropolitano).
+Na sequência, mais quatro homens se aproximaram. O policial militar declarou na denúncia que eles estavam visivelmente alterados, possivelmente sob efeito de bebidas alcoólicas, e começaram a afrontá-lo, gritando: "aqui é o Deic, pô". As agressões flagradas pela câmera começam em seguida.
+Envolvidos na ocorrência, os agentes da Divecar (Divisão de Investigações sobre Furtos, Roubos e Receptações de Veículos e Cargas) do Deic (Departamento Estadual de Investigações Criminais) contestaram a versão do PM. Em depoimento, eles afirmaram que o policial militar estava embriagado e armado, intimidando as pessoas no estabelecimento, e não quis se identificar.
+Em determinado momento, um dos homens pula nas costas do PM, aplicando um golpe de mata-leão na vítima, enquanto outro puxava o braço direito dele para trás e um terceiro o empurrou. Caída no chão, a vítima foi cercada e atingida por socos. Depois que a agressão terminou, um deles pegou a arma do PM, que conseguiu se levantar do chão. Um dos agressores perguntou se o agente não tinha outra arma. Os agressores estariam participando de uma confraternização no estabelecimento.
+Durante as agressões, segundo a vítima, duas mulheres que estariam acompanhando os agressores abordaram a esposa dele, dando cabeçadas e chutes nela.
+Um dos agressores também afirmou que mataria o PM e a esposa se eles o denunciassem à polícia. A vítima relatou que ele e a companheira não revidaram às agressões.
+Após conseguir deixar o local, o casal deu uma volta no quarteirão e o agente acionou à Polícia Militar. Enquanto aguardava, ele localizou a sua arma dentro da bolsa da esposa, parcialmente desmontada e com o carregador retirado.
+Corregedoria abre procedimento
+Procurada, a SSP-SP informou que a Corregedoria da Polícia Civil, assim que tomou conhecimento do caso, abriu um procedimento para investigar a conduta dos envolvidos. "Detalhes serão preservados para garantir autonomia ao trabalho policial", finalizou.
+A coluna tenta contato com os policiais e com o bar para pedido de posicionamento. O espaço segue aberto para manifestação.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Valmir Salaro
+Beatriz Gomes</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024-08-26T20:33:11-03:00</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2024-08-27T17:57:52-03:00</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/valmir-salaro/2024/08/26/caso-agressao-pm-sao-paulo.htm</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Regiões Sul e Sudeste podem ter geada na próxima madrugada, alerta Inmet</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>As regiões Sudeste e Sul do Brasil podem ter registro de geada na madrugada de terça-feira (27), segundo alerta do Inmet (Instituto Nacional de Meteorologia).
+O que aconteceu
+Para a região Sul, foi emitido o alerta laranja, que representa "perigo". Das 4h às 8h de terça-feira, as temperaturas mínimas devem variar entre 0°C e 3°C, apresentando risco de perda de plantações.
+No Paraná, o aviso vale para o norte, o centro e sul do estado, bem como a região metropolitana de Curitiba. Em Santa Catarina, a geada toma conta das porções central e oeste, além do Vale do Itajaí e Grande Florianópolis. Já no Rio Grande do Sul, o alerta é para as regiões norte, nordeste e metropolitana de Porto Alegre.
+Interior paulista está sob alerta amarelo. As regiões do Vale do Paraíba, Campinas, Itapetininga, Bauru, litoral sul e macro metropolitana têm "perigo potencial" para geada. A previsão é que as temperaturas mínimas cheguem a até 3ºC entre 3h e 8h de terça-feira, o que representa um risco leve de perda de plantações.
+Minas Gerais e Rio de Janeiro também serão atingidos. O alerta amarelo vale para a porção sul/sudoeste mineira e para o sul fluminense.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024-08-26T16:07:11-03:00</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2024/08/26/inmet-alerta-geada.htm</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Muito dinheiro nas campanhas não garante votos nos EUA; entenda</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Esta é a newsletter TixaNews - Eleições Americanas. Inscreva-se para receber gratuitamente no seu email de segunda a sexta.
+Atenção, começou. Eu sei, só se fala de eleições americanas nesta carta há dois meses, mas tenho que dizer que a corrida pra valer começou só agora. E apesar do sucesso da convenção democrata na semana passada, a corrida está muito, mas muito apertada, como bem alertaram Obamas e Clintons. Sim, eu também sei que você quer saber com o que estou chocada, mas como boa estrategista, só vou contar mais para baixo.
+Antes preciso contar detalhes da corrida.
+Kamala começa com o caixa cheio de dinheiro. Sua campanha arrecadou 540 milhões de doletas em apenas cinco semanas. É um recorde histórico em uma campanha presidencial americana. Pensa bem, isso em reais dá algo próximo de 3 bilhões de reais. (Nem no melhor esquema caixa 2, uma campanha presidencial brasileira arrecadou isso tudo. Até onde se sabe). Só na semana da convenção foram 82 milhões de dólares. E lá as pessoas doam na física, não na PJ.
+No início de agosto, a campanha de Trump anunciou que tinha 327 milhões de doletas em caixa. Mas não encontrei dados mais atuais da campanha. Enfim, essa dinheirama toda vai virar propaganda eleitoral especialmente nos tais estados campos de batalha.
+Em outra frente que Kamala parece estar bem é nas pesquisas. Varia de 1,5 a 3 pontos sua vantagem sobre Trump e é sempre bom estar na frente mesmo que a diferença não seja gigante. E ainda tem o fator convenção que não foi medido pelas pesquisas. A própria campanha de Trump já avisou que Kamala deve ter um repique nas pesquisas pós-convenção.
+O problema é que no colégio eleitoral (que decide a eleição), as projeções ainda apontam vitória de Trump. Pra se eleger presidente, o candidato precisa ter 270 votos do colégio eleitoral. É por esse motivo que os sete estados indecisos são tão importantes.
+Um dos estados mais importantes para Trump é a Geórgia. E quem diz isso não sou eu, é o senador republicano da Carolina do Sul, Lindsey Graham. Nos talk shows políticos deste fim de semana ele vaticinou: "Se não vencermos na Geórgia, não vejo como chegaremos a 270".
+O fator GEÓRGIA
+Talvez por isso, Trump tenha botado o rabinho entre as pernas na semana passada e foi para as redes sociais fazer um agrado ao governador da Geórgia, Brian Kem. Ele agradeceu ao governador "por toda a sua ajuda e apoio na Geórgia, onde uma vitória é tão importante para o sucesso do nosso Partido e, mais importante, do nosso País. Estou ansioso para trabalhar com você, sua equipe e todos os meus amigos na Geórgia para ajudar a TORNAR A AMÉRICA GRANDE NOVAMENTE!"
+Por que isso importa? Porque há algumas semanas, Trump foi discursar na Geórgia e xingou o governador, que é republicano e tem altos índices de aprovação. Basicamente, Kemp certificou o resultado da eleição em 2020 dando vitória para Biden quando Trump queria questionar o resultado.
+A postagem do Trump agora rastejando por perdão gerou comentários de analistas dizendo que nada mostra mais o pânico de Trump e de que Kemp queria uma humilhação pública e Trump entregou.
+Tem mais sobre a Georgia que precisamos saber. Recentemente, eles aprovaram novas regras que permitem que os funcionários eleitorais interrompam contagem de votos ou até se recusem a dar certificação caso acreditem que tenha alguma irregularidade. Significa que o resultado oficial da Geórgia possa atrasar. É, darling, pelo vista essa carta vai ter uma vida longa (Sim, Tixa, sua lagartixa linda, por favor, queremos você pra sempre nas nossas caixas de e-mail).
+Roubando aqui o que andaram escrevendo: a corrida real não termina até a posse.
+Robert Kennedy Jr bagunça a eleição
+Robert Kennedy Junior era candidato a presidente como independente. Mas todo mundo já sabia que essa campanha não ia para a frente e na sexta ele desistiu de concorrer. Apoiou o Trump, apesar dele ser originalmente democrata. Também não surpreendeu ninguém.
+Ninguém sabe se esse apoio vai render algo, além de um pontinho marginal nas pesquisas, para Trump. Kennedy tinha 5% das intenções de votos (bem lá atrás ele chegou a ter 20%), não tem suporte de nenhum outro Kennedy (muito pelo contrário) e é dono de histórias esquisitas como o fato de ter alegado em um tribunal ter um verme no cérebro e que ele jogou um filhote de urso morto no Central Park e fez parecer que uma bicicleta o havia atingido. Sim, tudo estranho. (Não, ainda não é isso que me chocou.)
+Kennedy insinuou que pode desistir de estar nas chapas de estados campos de batalha, mas que pode continuar na chapa em outro estados e assim ganhar a eleição. Como isso seria possível?
+Aqui está o choque, darling:
+Se Trump e Kamala empatarem no colégio eleitoral (269 a 269), a Câmara é que decide o rolê. Dizendo de outra forma: a Constituição americana diz que se nenhum candidato receber a maioria dos votos eleitorais, o vencedor é decidido pela Câmara, com a delegação de cada estado dando um voto. Socorro, BRASEW. Que eleição é essa?
+Nota. Parece que essa ideia do Kennedy de que ele de repente poderia receber os votos dos representantes da Câmara e ser eleito presidente fica mais na fantasia porque daí ele também teria que ter voto do colégio eleitoral, o que dificultaria ter o empate e a eleição ir para a Câmara e ainda tem o lance de infidelidade partidária que é proibida em muitos estados. Enfim, só eu fiquei chocada com isso? Manda zap e me conta se você também ficou! 
+Como a corrida só começou agora, o embate mais esperado é o debate. Tem um marcado para o dia 10 de setembro na ABC, mas o Trump deixou ontem nas rede sociais a dúvida no ar se ele vai mesmo ao debate.
+"Assisti às FAKE NEWS da ABC esta manhã, tanto a entrevista ridícula e tendenciosa do repórter Jonathan Carl (K?) com Tom Cotton (que foi fantástico!), quanto o chamado Painel de Odiadores de Trump, e pergunto: por que eu faria o Debate contra Kamala Harris naquela rede?"
+O site Politico noticiou que as campanhas estão tratando porque o pessoal da Kamala insiste para que os microfones fiquem ligados durante todo o debate, mas que a campanha do Trump não quer (por motivos de melhor deixar no mudo). A campanha do Trump disse que eles querem mudar regras já estabelecidas tanto para o debate da CNN (o fatídico para o Biden) quanto para o da ABC.
+"Eles não permitem que Harris dê entrevistas, não permitem que ela dê coletivas de imprensa e agora querem dar a ela uma folha de dicas para o debate. Meu palpite é que eles estão procurando uma maneira de se esquivar de qualquer debate com o presidente Trump."</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Josette Goulart</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024-08-26T11:51:51-03:00</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/internacional/ultimas-noticias/2024/08/26/muito-dinheiro-nas-campanhas-nao-garantem-votos-nos-eua-entenda.htm</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Discussão sobre microfone põe em risco debate entre Kamala e Trump na TV</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Uma divergência entre as campanhas de Donald Trump e Kamala Harris, sobre o microfone estar aberto ou fechado durante o debate na ABC, coloca em risco a realização do encontro entre os dois candidatos presidenciáveis, marcado para o dia 10 de setembro.
+O que aconteceu
+Em junho, equipes haviam feito acordo para o debate da CNN. Na ocasião, ficou combinado que o microfone de um candidato ficaria desligado sempre que o outro falasse. Essa exigência foi imposta pela campanha do presidente Joe Biden, então candidato democrata.
+Cenário de agora é diferente. Biden desistiu de tentar concorrer à reeleição— após pressão interna e desempenho ruim no debate da CNN— e foi substituído por Kamala Harris. A campanha dela quer que os microfones estejam abertos o tempo todo durante o debate da rede de TV ABC. A campanha republicana não concorda.
+Os chamados "microfones quentes" podem ajudar ou prejudicar os candidatos. Isso porque ele pode capturar comentários improvisados que, às vezes, não deveriam ser ouvidos pelo público. Historicamente, os debates americanos sempre aconteceram com os áudios abertos —a exceção ocorreu no encontro promovido pela CNN, em junho.
+Dissemos à ABC e outras redes [de TV] que acreditamos que os microfones de ambos os candidatos devem estar abertos durante toda a transmissão. Nosso entendimento é que os 'manipuladores' de Trump preferem o microfone mudo porque acham que seu candidato não possa agir como presidente por 90 minutos sozinho. Brian Fallon, porta-voz da campanha de Kamala, ao site de notícias Político
+Porta-voz da campanha de Trump, Jason Miller disse em um comunicado que eles já haviam concordado com os mesmos termos da CNN. "Não falamos em nenhuma mudança nas regras acordadas."
+Em post na Truth Social, Trump mirou os ataques à emissora. "Por que eu faria o debate contra Kamala Harris nessa rede?" escreveu o republicano, que está fazendo sua terceira tentativa de chegar à Casa Branca, em uma postagem em rede social.
+*Com informações da AFP</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:50:34-03:00</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/internacional/ultimas-noticias/2024/08/26/eleicoes-americanas-eua-donald-trump-x-kamala-harris-debate-presidentes.htm</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Vereadora do PL lidera corrida eleitoral em Aracaju, diz Quaest</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Pesquisa Quaest divulgada nesta segunda-feira (26) mostra que Emília Corrêa (PL) lidera a corrida pela prefeitura de Aracaju (SE).
+O que aconteceu
+A vereadora aparece com 26% das intenções de voto. Ela é seguida por Delegada Danielle (MDB) e Yandra (União), que estão empatadas no limite da margem de erro, de três pontos percentuais, para mais ou para menos.Emília Corrêa (PL): 26%Delegada Danielle (MDB): 19%Yandra (União): 13%Luiz Roberto (PDT): 9%Candisse Carvalho (PT): 8%Niully Campos (PSOL): 2%Zé Paulo (Novo): 1%Felipe Vilanova (PCO): 0%Indecisos: 8 %Branco/Nulo/Não vai votar:14%Contratada pela TV Sergipe, afiliada da Rede Globo, a pesquisa Quaest foi realizada presencialmente com 852 eleitores de 16 anos ou mais em Aracaju, entre os dias 23 e 25 de agosto. O levantamento tem nível de confiança de 95%. A pesquisa foi registrada na Justiça Eleitoral sob o protocolo SE-09990/2024.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024-08-26T22:02:41-03:00</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/eleicoes/2024/08/26/pesquisa-quaest-aracaju.htm</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ex-prefeito Silvio Mendes lidera disputa eleitoral em Teresina, diz Quaest</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Pesquisa Quaest divulgada nesta segunda-feira (26) mostra o ex-prefeito Silvio Mendes (União Brasil) na liderança da disputa pela prefeitura de Teresina (PI).
+O que aconteceu
+Aliado do senador e ex-ministro do governo Bolsonaro Ciro Nogueira (PP-PI), Mendes tem 46% das intenções de voto. O petista Fabio Novo (PT) vem em segundo lugar. Dr. Pessoa (PRD), atual prefeito e candidato à reeleição, ocupa uma distante terceira colocação. A margem de erro da pesquisa é três pontos percentuais, para mais ou para menos.
+Silvio Mendes (União): 46%Fabio Novo (PT): 37%Dr. Pessoa (PRD): 5%Professor Tonny (Novo): 1%.Francinaldo Leão (PSOL): 0%Geraldo Carvalho (PSTU): 0%Lourdes Melo (PCO): 0%Santiago Belizario (UP): 0%Telsírio Alencar (Mobiliza): 0%Indecisos: 7%Branco/Nulo/Não vai votar: 4%
+A Quaest ouviu 852 eleitores de 16 anos ou mais, entre os dias 23 e 25 de agosto. O nível de confiança da pesquisa é de 95%. O levantamento foi registrado no TSE (Tribunal Superior Eleitoral) com o número PI-04186/2024.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:58:00-03:00</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/eleicoes/2024/08/26/quaest-eleicao-prefeito-teresina.htm</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Marçal ironiza atuação de Carlos Bolsonaro na campanha de Ramagem: 'Posso te ajudar'</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>O candidato à Prefeitura de São Paulo Pablo Marçal (PRTB) provocou mais uma vez o vereador carioca Carlos Bolsonaro (PL-RJ). Em sabatina na CNN Brasil, Marçal ironizou a atuação do filho 02 de Jair Bolsonaro na campanha de Alexandre Ramagem (PL-RJ) à Prefeitura do Rio de Janeiro.
+"Cuida da sua eleição aí do Ramagem porque ele está tomando um pau no Rio de Janeiro. Gosto muito do Ramagem; se for precisar de ajuda, eu te ajudo com o digital. Aqui em São Paulo, eu já resolvi", disse o ex-coach nesta segunda-feira, 26, dirigindo-se a Carlos.
+Marçal também alfinetou o vereador sobre sua disputa eleitoral. "Você vá cuidar do Rio de Janeiro. Veja se você ganha de novo a eleição para vereador e cuida da prefeitura, porque o Paes vai levar no primeiro turno, como eu aqui em São Paulo", disse. Até a noite desta segunda, Carlos não se manifestou em suas redes sobre a provocação.
+Nas últimas semanas, Pablo Marçal e a família Bolsonaro trocaram ataques. O empresário insistia em se dirigir a Jair Bolsonaro, buscando seu apoio, mas o ex-presidente tem negado auxílio ao candidato do PRTB, já que oficialmente apoia a reeleição do prefeito Ricardo Nunes (MDB).
+No sábado (24), depois de ato de campanha, Marçal acusou Bolsonaro de "se curvar para comunistas". Nesta segunda, na mesma entrevista à CNN, o ex-coach disse que o ex-presidente "não manda na direita" e o acusou de "curvar a cervical" para Valdemar Costa Neto, o dono do PL.
+Antes, ambos haviam brigado em comentários de uma postagem de Jair Bolsonaro no Instagram. O ex-presidente respondeu de forma irônica a um comentário de Marçal. O ex-coach acusa Carlos de ter respondido através da conta do pai.</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:56:00-03:00</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2024-08-27T05:50:48-03:00</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/26/marcal-ironiza-a-atuacao-de-carlos-bolsonaro-na-campanha-de-ramagem-posso-te-ajudar.htm</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Bia Kicis quer convocar perito à CCJ para esclarecer caso das mensagens de Moraes</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A deputada Bia Kicis (PL-DF) apresentou nesta segunda-feira (26) um requerimento para convocar o ex-assessor do TSE Eduardo Tagliaferro para prestar esclarecimentos à CCJ (Comissão de Constituição e Justiça).
+O perito é pivô das acusações de que Alexandre de Moraes teria ignorado os ritos necessários para pedir relatórios à Aeed (Assessoria Especial de Enfrentamento à Desinformação) do TSE (Tribunal Superior Eleitoral, onde Tagliaferro trabalhava, para investigar bolsonaristas.
+Segundo a deputada, essa seria a oportunidade de esclarecer o que ela chama de "disparidade nas investigações de políticos e cidadãos de direita em comparação aos de esquerda, com base em relatórios encomendados pelo gabinete do ministro Alexandre de Moraes conduzidos pelo sr. Eduardo Tagliaferro".
+Em entrevista ao Estadão, Tagliaferro afirmou que de fato Moraes investigava mais pessoas de direita. "Posso afirmar que a direita foi mais investigada sim. Poucas e raras as pessoas de esquerda para quem recebi demandas de investigações. Isso é estatístico. Basta olhar meus relatórios e a quantidade de perfis e contas que bloqueamos no curso das eleições", declarou o perito.
+Kicis afirmou que a convocação de Tagliaferro seria uma oportunidade para esclarecer questões sobre "imparcialidade, possível perseguição política e uso indevido de recursos públicos". O requerimento, porém, ainda terá que ser aprovado pelos seus pares.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024-08-26T21:54:00-03:00</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024-08-26T22:24:06-03:00</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/26/bia-kicis-quer-convocar-perito-a-ccj-para-esclarecer-caso-das-mensagens-de-moraes.htm</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Boulos, Nunes e Datena confirmam ida a debate após 'readequação' das regras</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Os candidatos à Prefeitura de São Paulo Guilherme Boulos (PSOL), José Luiz Datena (PSDB) e Ricardo Nunes (MDB) confirmaram presença no debate da TV Gazeta e do My News, marcado para o próximo domingo (1º).
+O que aconteceu
+A presença dos candidatos foi confirmada após a organização "readequar" as regras do debate, afirmam as campanhas. "A gente recebeu por parte da Gazeta uma informação importante de que readequaram as regras, que terá ali o cumprimento das regras", disse Nunes em agenda mais cedo.
+O apresentador José Luiz Datena (PSDB) também disse que participará do encontro. Os três candidatos se ausentaram do último debate que ocorreu na semana passada, organizado pela Veja. A principal crítica é de que o empresário Pablo Marçal (PRTB) não segue as regras, não é punido e usa o espaço para criar factoides contra os adversários —depois faz cortes para redes sociais para aumentar os ataques. 
+Além de Boulos, Datena e Nunes, estarão presentes no debate Marçal e Tabata Amaral (PSB). Os candidatos terão cinco blocos para discutirem propostas para cidade de São Paulo. O evento está marcado para começar às 18h. 
+Nos dois primeiros debates, da Band e do Estadão/Terra, Marçal polemizou. No encontro da Band, o ex-coach ficou descontrolado após pergunta de Tabata sobre uma condenação do empresário por furto qualificado e envolvimento em uma organização criminosa. Ele também associou, sem apresentar provas, Boulos com o uso de drogas —o psolista já ganhou direito de resposta nas redes sociais por causa das acusações de Marçal.
+A candidata do Partido Novo, Marina Helena, não foi convidada. Segundo o My News, o critério para definir quais candidatos seriam convidados foi o desempenho nas pesquisas de intenção de voto. 
+Regra proíbe objetos com candidatos
+Entre as regras, os candidatos não poderão apresentar qualquer objeto ou documento durante o debate. As regras foram definidas pela TV Gazeta com as campanhas dos candidatos convidados.
+A emissora também decidiu que os candidatos devem permanecer em seus lugares durante todo o programa. Os políticos podem receber advertência e, no caso de reincidência, podem ser convidados a se retirarem. A equipe de segurança pode ser acionada também. </t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ana Paula Bimbati
+Caíque Alencar</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2024-08-28T13:47:57-03:00</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2024-08-28T14:38:04-03:00</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/eleicoes/2024/08/28/candidatos-vao-debate-tv-gazeta-prefeitura-sp.htm</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Mancha de fogo com mais de 500 km de extensão toma conta da Amazônia</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>O sul da Amazônia está enfrentando, nesta quarta-feira, uma grande intensidade do fogo. Um mapa de concentração de monóxido de carbono feito às 11 horas mostra uma região gigante pegando fogo em áreas da Bolívia e nos estados de Rondônia, Amazonas e Mato Grosso.
+"O sul da Amazônia está pegando fogo, literalmente", diz o meteorologista Humberto Barbosa, coordenador do Lapis (Laboratório de Análise e Processamento de Imagens de Satélite) da Ufal (Universidade Federal de Alagoas).
+A mancha captada pelo satélite Copernicus e disponibilizada pelo site Windy tem mais de 500 km de altura no mapa, e 400 km de largura.
+Hoje há um jato de ar de baixos níveis descendo ali a Cordilheira dos Andes. A perspectiva é que, nos próximos dias, isso aumente, assim como a temperatura só vai aumentar para a acima média dessa época do ano.Humberto Barbosa
+Neste mês, até esta terça-feira, a Amazônia registrou 28.697 focos de calor, segundo o Programa de Queimadas do INPE (Instituto Nacional de Pesquisas Especiais).
+O número, porém, vem crescendo, e somente nos dois últimos dias foram 3,5 mil focos registrados na parte brasileira do bioma. No lado boliviano, esse número de focos chega a 2,7 mil nesses dois dias.
+Qualidade do ar perigosa
+Por causa das queimadas, várias cidades desses três estados estão com a qualidade do ar classificada como "perigosa", que é uma classificação quando a poluição pode provocar problemas sérios de saúde a humanos e animais.
+É o caso de Porto Velho, onde o nível de poluição atmosférica estava em 500. Para efeito de comparação, um ar é considerado bom quando a qualidade está entre 0 e 50. A partir de 300, a qualidade do ar já é considerada perigosa.
+"As unidades pronto-socorro estão lotados com pessoas tossindo. A cidade está envolvida em uma fumaça", conta a média Londres Borzacov.
+Queimadas aumentam em todo país
+Em termos nacionais, o número de focos de queimadas no Brasil em agosto de 2024 já é o maior para o mês desde 2010. Foram 53.976 focos de incêndio até esta terça-feira (27). Até então, agosto de 2010 havia contabilizado o maior número de queimadas (90.444) desde o recorde de 2007 (91.085).
+De janeiro a agosto deste ano, o Brasil já registrou 112.392 focos de queimadas. Esse número representa 59% do total contabilizado em 2023 (189.926). Nesse mesmo período do ano passado, o país havia registrado 62.355, ou seja, houve um aumento de 80% em relação a 2024.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Carlos Madeiro</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2024-08-28T12:12:36-03:00</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:36:32-03:00</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/carlos-madeiro/2024/08/28/mancha-de-fogo-com-mais-de-500-km-de-extensao-toma-conta-da-amazonia.htm</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Caso Marielle: STJ rejeita pedido de impeachment de Domingos Brazão</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A Corte Especial do STJ (Superior Tribunal de Justiça) rejeitou o pedido de impeachment do conselheiro Domingos Brazão do Tribunal de Contas do Estado do Rio. Ele é acusado de ser um dos mandantes do assassinato da vereadora Marielle Franco.
+O que aconteceu
+Tribunal analisou o caso em sessão sigilosa em 21 de agosto. Informação foi revelada pelo g1 e confirmada pelo UOL. Parlamentares do PSOL haviam pedido ao STJ que Brazão fossem reconhecido como autor de crimes de responsabilidade e que ele fosse imediatamente suspenso de sua função, perdendo inclusive o direito ao salário.
+Ministros da Corte Especial rejeitaram pedido sem discussão. O caso foi analisado "em bloco", isto é, quando não há leitura de voto nem discussões. Os ministros apenas acompanharam o voto do relator do caso, ministro Raúl Araújo, que entendeu que não haveria uma vinculação direita entre a suposta autoria intelectual do crime de homicídio e um crime de responsabilidade.
+A Corte Especial é o colegiado que reúne os 15 ministros mais antigos do STJ. O grupo é o responsável por analisar as ações penais envolvendo governadores e outras autoridades com foro no tribunal, como conselheiros de tribunais de contas estaduais.
+PGR foi contra pedido do PSOL. A Procuradoria-Geral da República também havia se manifestado contra a tese apresentada pelos parlamentares do PSOL, por entender que há uma omissão legislativa sobre o assunto e que não caberia uma analogia neste caso.
+Brazão é réu no STF. Ele e seu irmão, o deputado federal Chiquinho Brazão (sem partido-RJ), são acusados de serem os mandantes do assassinato da vereadora Marielle Franco (PSOL). Os dois foram presos em março deste ano em uma operação da Polícia Federal. A ação penal contra os dois está em andamento ainda no Supremo Tribunal Federal, sob relatoria do ministro Alexandre de Moraes. 
+Chiquinho teve cassação aprovada hoje no Conselho de Ética da Câmara. Mas o relatório ainda precisa ser votado em plenário. Ele também pode recorrer.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Mateus Coutinho</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:58:51-03:00</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:58:51-03:00</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2024/08/28/stj-rejeita-pedido-de-impeachment-de-domingos-brazao-feito-pelo-psol.htm</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Polícia prende 2 por morte de prefeito; irmão é detido por tentar vingança</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Dois homens suspeitos de matar o prefeito de João Dias (RN), Marcelo Oliveira, nesta terça-feira (27), foram presos poucas horas após o duplo homicídio —o pai do prefeito, Sandi Alves de Oliveira, também foi morto. Outros dois suspeitos fugiram e são procurados pela polícia.
+As informações foram passadas nesta quarta-feira (18) pela Polícia Civil do Rio Grande do Norte, que comunicou ainda dez prisões de um grupo que tentava se vingar pelas mortes, incluindo um irmão do prefeito.
+Segundo a polícia, um dos presos seria o responsável pela execução de Oliveira, e outro foi detido por ajudar na fuga. Os nomes deles não foram revelados. As prisões ocorreram ainda na terça-feira.
+Vingança
+O irmão do prefeito, três policiais militares (um do Ceará e dois do Rio Grande do Norte) e outras seis pessoas estavam em dois carros nas redondezas da área de busca. O grupo foi detido em ocasiões distintas. Com eles, foram apreendidos um fuzil, espingardas, pistolas e revólveres.
+"Evitamos um derramamento de sangue na cidade. O grupo, muito provavelmente, tentaria se vingar da morte do prefeito", disse o delegado Alex Wagner, diretor da Divisão de Polícia Civil do Oeste.
+Ele afirma que as investigações e buscas seguem, já que outros dois suspeitos que estavam no veículo com os homens presos por participação direta no duplo homicídio fugiram. As buscas contam com um helicóptero.
+O caso
+Marcelo Oliveira tinha 38 anos e era candidato à reeleição pelo União Brasil, na cidade de cerca de 2.000 habitantes, próxima da divisa com a Paraíba. O político, que deixa a mulher e dois filhos, chegou a ser socorrido, mas teve a morte constatada no hospital da cidade de Catolé do Rocha (PB).
+Marcelo já havia sido vítima de um atentado em novembro de 2022. Os detalhes da tentativa de assassinato não foram esclarecidos, mas um suspeito foi preso pela Polícia Civil.
+Marcelo foi eleito em 2020, mas renunciou em julho de 2021. Entretanto, em outubro de 2022, ele conseguiu uma decisão do Tribunal de Justiça determinando seu retorno ao cargo, acolhendo o argumento de que ele deixou a prefeitura em razão de ameaças da então vice-prefeita, Damária Jácome (Republicanos), e do presidente da Câmara, Laerte Jácome, pai dela.
+Damária é candidata a prefeita de João Dias e concorria com Marcelo. Tanto ela como o pai chegaram a ter prisões preventivas decretadas ainda em 2022, mas acabaram soltos e tendo as detenções substituídas por medidas cautelares.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Carlos Madeiro</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2024-08-28T14:27:43-03:00</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:53:08-03:00</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/carlos-madeiro/2024/08/28/policia-prende-2-por-morte-de-prefeito-irmao-e-preso-por-tentar-vinganca.htm</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Dino se queima com Lula e Marina, mas não apaga incêndio no Congresso</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>O ministro Flávio Dino, do Supremo Tribunal Federal, se queimou com o presidente Lula e com a ministra do Meio Ambiente, Marina Silva, ao dar 15 dias para o governo federal intensificar o combate aos incêndios no Pantanal e na Amazônia, afirmou o colunista Tales Faria no Análise da Notícia desta quarta-feira (28).
+Isso deixou tiririca a turma do Palácio do Planalto, o presidente inclusive. 'Espera aí, está jogando no colo do governo a culpa pela situação das queimadas todas? Agora a culpa é do governo?'
+Então, já é um problema que ele está armando para o Lula. Agora, a outra coisa é que as pessoas que com quem conversei no Congresso estão dizendo o seguinte: 'Olha, o pessoal aqui está achando que isso daí, que ele está fazendo, é para pagar, para tentar disfarçar a bomba que ele jogou para a gente', dizendo: 'Não, eu também critico o pessoal do governo.'
+Tales lembra o mal-estar que Dino criou no Congresso ao suspender as emendas impositivas até serem criadas novas regras de transparência.
+Qual a bomba que ele jogou lá? A das emendas Pix, ele suspendeu. O Dino havia determinado que as emendas Pix, isso foi no início do mês, só poderiam ser liberadas pelo Executivo se cumprissem exigências de transparência e rastreabilidade. No meio do mês, dia 14, ele suspendeu a execução de todas as emendas de caráter impositivo até que houvesse transparência. Depois, ele veio na CGU, que é do Executivo, dizer que a CGU tinha que mudar o site, tornar o site mais transparente porque não estava sendo transparente.
+Quer dizer, ele conseguiu irritar, se queimar com o governo federal, com o Meio Ambiente, com o Lula e com a CGU. No Congresso, ele já estava queimado, até antes mesmo de ser ministro do Supremo. Toda vez que ele ia ao Congresso, ele espancava, especialmente os deputados em praça pública. Aí depois que virou ministro da Justiça ainda veio com esse negócio das emendas. Então, ele conseguiu se queimar com o Congresso, com o governo federal, com o Lula, com o Ministério da Defesa, com o Ministério da Justiça, com a ministra do Meio Ambiente e não resolveu o problema dele com o Congresso. Tales Faria, colunista do UOL.
+O Análise da Notícia vai ao ar às terças e quartas, às 13h e às 14h30.
+Onde assistir: Ao vivo na home UOL, UOL no YouTube e Facebook do UOL.
+Veja abaixo o programa na íntegra:</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Tales Faria</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:09:32-03:00</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/tales-faria/2024/08/28/dino-se-queima-com-lula-e-marina-mas-nao-apaga-incendio-no-congresso.htm</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>PL gasta R$ 1,85 mi na campanha de Carlos Bolsonaro para tentar puxar votos</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>A direção nacional do PL enviou R$ 1,85 milhão para a campanha do vereador Carlos Bolsonaro (PL-RJ) à reeleição para a Câmara Municipal do Rio.
+O que aconteceu
+PL transferiu valor para campanha através do fundo eleitoral. Os dados foram registrados no TSE (Tribunal Superior Eleitoral) na segunda-feira (26).
+Valor é o maior recebido por Carlos em campanhas. Até então, sua maior receita havia sido de R$ 507 mil nas eleições de 2012, quando concorreu pelo PP. Em 2020, o vereador recebeu R$ 110 mil e disputou pelo Republicanos. Já em 2016, Carlos teve R$ 46 mil para fazer campanha.
+A meta do partido é puxar votos. O PL quer levar mais vereadores para a Câmara dos Vereadores por meio de uma votação expressiva. Nas eleições passadas, em 2020, o total de votos em Carlos caiu. Foram 71 mil votos, uma redução de 30% em relação a 2016.
+Puxadores existem pela forma como candidatos são eleitos. Para se tornar vereador, um candidato precisa ter, pelo menos, 10% do quociente eleitoral. O indicador é o resultado da divisão do número de votos válidos para o cargo pelo número de vagas disponíveis. 
+Outra condição para eleição é que o candidato esteja entre os mais votados do partido. Isso é necessário porque a distribuição das vagas a serem ocupadas por cada legenda se dá em função do quociente partidário, que é o indicador que resulta da divisão do número de votos de um partido ou da federação pelo quociente eleitoral.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2024-08-28T13:20:21-03:00</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2024-08-28T14:01:57-03:00</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/eleicoes/2024/08/28/pl-transfere-r-185-milhao-a-carlos-bolsonaro.htm</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Organizações civis criticam projeto que muda Lei da Ficha Limpa: 'Retrocesso'</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Organizações de promoção da transparência e do combate à corrupção divulgaram nota pública contra o projeto que muda a Lei da Ficha Limpa. Para eles, a proposição causará "retrocessos para o combate à corrupção" e "enfraquece o sistema democrático". O tema está na pauta e deverá ser votado no plenário do Senado Federal nesta quarta-feira, 28.
+Essa proposta, de autoria da deputada federal Dani Cunha (União-RJ), filha do ex-presidente da Câmara dos Deputados Eduardo Cunha (Republicanos-RJ), cria novas contagens de prazos de inelegibilidade e beneficiará políticos condenados que perderam o direito de participar das eleições. O próprio Cunha será beneficiado caso o projeto seja aprovado.
+Eduardo Cunha teve o mandato (que ia até janeiro de 2019) cassado em novembro de 2016. Na atual legislação, a contagem dos oito anos de inelegibilidade iniciou em janeiro de 2019, o que o faz inelegível por 11 anos, até 2027.
+Se o projeto for aprovado pelo Senado, a contagem de Cunha termina em 2024, o que o torna apto para as próximas eleições, de 2026. Cunha tentou, inclusive, candidatar-se como deputado federal em 2022. Seus planos acabaram frustrados.
+"A diminuição de tal prazo, conforme estabelecido pelo projeto em questão, contribui única e exclusivamente para a salvaguarda dos interesses daqueles que já se encontram na posição de representantes da cidadania, mas não foram capazes de desempenhar com retidão e moralidade tal função", diz a nota, assinada por seis organizações.
+São signatários o Instituto Não Aceito Corrupção, a Transparência Internacional Brasil, a Associação Fiquem Sabendo, o Movimento de Combate à Corrupção Eleitoral - MCCE e a Transparência Partidária.
+O grupo diz que o projeto foi votado de forma "açodada" e a sociedade civil "foi absoluta e indevidamente alijada do processo de construção" do projeto de lei. "Somado à aprovação da PEC da Anistia, o retrocesso na lei da Ficha Limpa evidenciará o distanciamento das prioridades do Congresso Nacional com relação às aspirações da sociedade brasileira de uma política mais ética e responsiva aos seus anseios, afirma.
+Para ser aprovado em plenário, um projeto de lei complementar exige maioria absoluta, isto é, 41 senadores. Se aprovada, a matéria ainda vai para sanção ou veto do presidente Luiz Inácio Lula da Silva, que tem 15 dias úteis para decidir.
+A proposta estabelece três possíveis contagens para o prazo de inelegibilidade. A primeira conta a partir da decisão judicial que decretar a perda do cargo. Ela vale para membros do Poder Executivo e Poder Legislativo em nível federal, estadual e municipal.
+A segunda envolve o caso de abuso de poder econômico ou político. A contagem do prazo em caso de decisão transitada em julgada pela Justiça Eleitoral que envolverem o tema é iniciada no ano da eleição em que ocorreu o abuso. O candidato apenas se torna inelegível caso cassação do diploma, registro ou mandato, algo não é exigido atualmente.
+Um dos idealizadores da Lei de Ficha Limpa, Márlon Reis, argumenta que essa nova redação pode tornar o ex-presidente Jair Bolsonaro (PL) elegível. Segundo ele, a atual inelegibilidade não implicou em cassação de registro ou diploma, já que ele perdeu o pleito e não foi diplomado, o que o permitiria recuperar sua elegibilidade.
+A terceira é em caso de renúncia após representação de membros do Legislativo ou do Executivo que pode levar a abertura de processo por infringir a Constituição em vários níveis. Nesse caso, a data inelegibilidade começa a partir da renúncia.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:33:00-03:00</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/28/organizacoes-civis-criticam-projeto-que-muda-lei-da-ficha-limpa-retrocesso.htm</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Exército identifica autores de carta golpista; oficiais responderão a inquérito</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>O Exército concluiu a sindicância aberta no ano passado e identificou os autores e signatários da chamada "Carta ao Comandante do Exército de Oficiais Superiores da Ativa do Exército Brasileiro". O manifesto foi assinado por 37 militares e recebido pelo então ajudante de ordens do presidente Jair Bolsonaro tenente-coronel Mauro Cid, na noite de 28 de novembro de 2022 - véspera da publicação. O documento foi considerado pelo comandante da Força Terrestre na época, general Marco Antônio Freire Gomes, como uma pressão para que aderisse a uma tentativa de golpe de Estado.
+O texto fazia considerações sobre compromissos dos militares com a legalidade e críticas veladas à atuação do Poder Judiciário no processo eleitoral. A carta concluía que os oficiais estavam "atentos a tudo que está acontecendo e que vem provocando insegurança jurídica e instabilidade política e social no País". "Ademais, preocupa-nos a falta de imparcialidade na narrativa dos fatos e na divulgação de dados, por parte de diversos veículos de comunicação."
+Por ordem do Comandante Geral do Exército, general Tomás Paiva, quatro oficiais que escreveram o documento passaram a responder a um Inquérito Policial Militar (IPM), pois foi detectado que há "indícios de crime". O IPM terá 30 dias, prorrogáveis por mais 30, para ser concluído. O Ministério Público Militar (MPM), que é fiscal das investigações, pode requerer novas diligências e incluir outros entre os 26 militares identificados por assinarem o documento e que receberam punições disciplinares entre advertências, repreensões e detenções.
+O Estadão teve acesso com exclusividade ao resultado da apuração que apontou a participação de 12 coronéis, nove tenentes-coronéis, um major, três tenentes e um sargento. Dos quatro que redigiram o documento - que os demais assinaram -, dois são coronéis da ativa - Alexandre Castilho Bitencourt da Silva e Anderson Lima de Moura - e dois estão na reserva - Carlos Giovani Delevati Pasini e José Otávio Machado Rezo Cardoso. Eles não foram encontrados para se manifestarem. Outros 11 militares, mesmo com o nome na carta, deram explicações consideradas suficientes por seus superiores e, por isso, não sofreram nenhuma punição.
+Alexandre Bittencourt da Silva comandou o 6° Batalhão de Polícia do Exército até fevereiro de 2022. Na época da carta, havia deixado o cargo para morar em Santiago, no Chile, para realizar a Pós-Graduação em Condução de Políticas Estratégicas de Defesa, na Academia Nacional de Estudos Políticos e Estratégicos (ANEPE). Após retornar, foi alocado no Departamento Geral do Pessoal do Exército. Já Anderson Lima de Moura esteve, pelo menos até 2021, alocado no Departamento de Educação e Cultura do Exército e é coordenador pedagógico na Academia Militar das Agulhas Negras.
+Militares ouvidos pela reportagem afirmaram que não têm conhecimento, na história recente das Forças Armadas, de que alguma manifestação política resultasse em inquéritos policiais militares que pudessem levar a punições criminais, como acontece neste caso.
+A carta foi encontrada no celular de Mauro Cid durante as investigações da Polícia Federal, após o depoimento do ex-comandante da Força general Marco Antônio Freire Gomes, que revelou a existência do documento. Segundo ele, o objetivo era pressioná-lo a aderir ao golpe tentado, no dia 8 de janeiro de 2023, logo depois da posse do presidente Luiz Inácio Lula da Silva, quando as sedes dos três Poderes em Brasília foram invadidas e depredadas. Ao assumir o comando do Exército, o general Tomás Paiva determinou a abertura da sindicância para identificar os militares que assinaram e escreveram o manifesto, bem como as punições que haviam sido aplicadas a cada um deles.
+Conforme determina o regulamento disciplinar, os militares poderiam ou não ser punidos pelos seus comandantes imediatos, que também determinariam a pena, que vai de uma advertência até a detenção. A sindicância mostrou que, dos 37, somente 26 receberam penalidades. O Ministério Público Militar pode requerer que os outros 11, que não tiveram nenhuma sanção, também sejam investigados.
+A carta teria sido articulada por militares nos dias logo depois do segundo turno, quando as conspirações a favor de um golpe aumentavam, e o texto dizia que "covardia e injustiça são as qualificações mais abominadas por soldados de verdade".
+Em depoimento à PF, Freire Gomes já falava em punições. Disse também que a manifestação dos oficiais da ativa era ilícita, que fora feita com o objetivo de pressioná-lo e que só tomou conhecimento do fato por meio do Centro de Comunicação Social do Exército.
+Naqueles dias que antecederam a fatos suspeitos de integrar uma conspiração para uma tentativa de golpe no País, bolsonaristas e militares que apoiavam a permanência do então presidente no cargo - sob a alegação de que as eleições haviam sido fraudadas - trocavam acusações e faziam pesadas críticas aos generais do Alto Comando do Exército. Estes, por sua vez, rejeitavam a ruptura democrática e lembravam aos insurgentes que militares são proibidos por leis e regulamentos de se manifestar coletivamente seja sobre atos de superiores, em caráter reivindicatório ou político. O Alto Comando ainda alertava os que haviam assinado o manifesto mostrando que o ato traria consequências e punições.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:24:00-03:00</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/28/exercito-identifica-autores-de-carta-golpista-oficiais-responderao-a-inquerito.htm</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Conselho de Ética apresenta processo contra Glauber Braga, que chama Lira de 'bandido'</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>O deputado Paulo Magalhães (PSD-BA), relator de representação que acusa o deputado Glauber Braga (PSOL-RJ) por quebra decoro parlamentar, defendeu nesta quarta-feira, 28 que o caso seja votado no Conselho de Ética. A sessão em que o relator apresentou seu parecer foi repleta de acusações nesta quarta-feira, 28. Glauber disse que o relatório foi "comprado" pelo presidente da Câmara, Arthur Lira (PP-AL), a quem também chamou de "bandido".
+"É uma armação que está sendo articulada diretamente pelo presidente da Câmara, Arthur Lira. Vou dizer: Arthur Lira é um bandido", afirmou o psolista, que chegou a ter o microfone cortado pelo presidente do colegiado, Leur Lomanto Júnior (União-BA). A representação foi iniciada após ele ter expulsado um militante do Movimento Brasil Livre (MBL) da Câmara dos Deputados aos chutes.
+As acusações foram repetidas em mais oportunidades durante a sessão. Glauber afirmou que havia uma "armação" em curso no Conselho de Ética. "Peço respeito a vossa excelência. Não existe armação nenhuma nesse conselho", disse Leur.
+"Sua defesa se incrimina. Não faço conluio com ninguém. Minha relação com o presidente Arthur é discreta", disse Magalhães, o relator. "Discretíssima", ironizou Glauber.
+Magalhães prosseguiu a chamar o deputado de "inconsequente" e "irresponsável". "Eu não quero lhe cassar. Mas que vossa excelência merece, merece sim", afirmou o relator.
+O Conselho de Ética votará o relatório de Magalhães em outro dia, em razão de um pedido de vistas (mais tempo para análise) do deputado Chico Alencar (PSOL-RJ). Caso avance, o processo pode culminar na cassação de Glauber.
+A representação contra Chiquinho Brazão (sem partido-RJ), que foi finalizada nesta quarta-feira, por exemplo, levou três meses para ser concluída.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:11:00-03:00</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/28/conselho-de-etica-apresenta-processo-contra-glauber-braga-que-chama-lira-de-bandido.htm</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Polícia do RJ faz operação contra 'golpe da garra' em máquinas de pelúcias</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>A Polícia Civil do Rio de Janeiro realizou hoje a segunda fase da Operação Mãos Leves, que investiga fraudes em máquinas de bichos de pelúcia.
+O que aconteceu
+Investigações começaram após denúncias de pelúcias falsas. No começo do ano, a PCERJ recebeu a informação de que máquinas em shoppings no Rio de Janeiro tinham pelúcias falsas em suas máquinas. Em maio, agentes apreenderam "grande quantidade de bichos de pelúcias piratas".
+Máquinas só funcionavam após certo número de tentativas. Segundo a polícia, a perícia realizada nos equipamentos mostrou que a corrente elétrica adequada para a captura das pelúcias só era emitida após uma certa quantidade de tentativas, também contabilizada pelas máquinas. Agentes consideraram o esquema como um processo fraudulento para enganar os consumidores, "que acreditam que a obtenção do prêmio depende da sua habilidade ao operar a máquina".
+Dezenove mandados foram cumpridos no Rio e em Santa Catarina. Agentes apreenderam máquinas de bichos de pelúcias piratas, celulares, computadores, notebooks, tablets, documentos e uma arma.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Thiago Bomfim</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:33:02-03:00</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:33:02-03:00</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2024/08/28/policia-rj-pelucias.htm</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Trump não disse que usarão mpox para justificar bloqueio e fraude eleitoral</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Posts nas redes sociais enganam ao dizer que o ex-presidente dos Estados Unidos Donald Trump falou que a oposição quer usar a mpox, anteriormente conhecida como varíola dos macacos, para justificar fraudes nas eleições deste ano.
+O vídeo, que circula nas redes sociais como atual, é, na verdade, de agosto de 2023. Na ocasião, Trump falava sobre a covid-19.
+O que diz o post
+Os posts dizem: "URGENTE: Trump sobre a varíola dos macacos coincidir com as eleições de 2024". Logo depois aparece a seguinte declaração: "Querem reiniciar a histeria do covid para que possam justificar bloqueios, mais censura, votos ilegais via correios e trilhões de dólares pagos a aliados políticos às vésperas das eleições de 2024. Isso te soa famíliar?'"
+A publicação é acompanhada de um vídeo de Trump, em que o ex-presidente acusa a esquerda de estar tentando trazer de volta lockdowns e restrições da covid-19 para justificar fraudes nas eleições de 2024.
+O candidato afirmou, sem apresentar provas, que as eleições de 2020 foram manipuladas e prometeu resistência contra novos lockdowns, uso de máscaras e aplicações de vacinas. "Eles fraudaram as eleições de 2020, e agora estão tentando fazer a mesma coisa de novo, manipulando a eleição mais importante na história do nosso país, a eleição de 2024, mesmo que isso signifique tentar trazer de volta a covid. Mas eles vão falhar porque não vamos deixar isso acontecer", disse.
+Por que é falso
+Vídeo de Trump é de 2023. Ao realizar uma busca reversa, é possível encontrar o vídeo em postagens que datam 30 de agosto de 2023, inclusive no perfil do Instagram de Trump (aqui e abaixo). A OMS (Organização Mundial da Saúde) declarou mpox como emergência sanitária global no último dia 14, ou seja, um ano depois que o vídeo foi publicado nas redes sociais.
+Ex-presidente não fala de mpox. No vídeo que circula como atual, o candidato à presidência dos EUA não faz qualquer menção ao vírus mpox.
+Trump falava de covid-19. Ele dizia que a oposição estava tentando trazer de volta os confinamentos e restrições devido às novas variantes da covid-19. Trump começa o vídeo dizendo: "Os lunáticos da esquerda estão se esforçando muito para trazer de volta os lockdowns e restrições da Covid, com todo o alarmismo repentino sobre as novas variantes que estão surgindo. Sabe o que mais está chegando? Uma eleição". Depois completa com a frase destacada nos posts: "Eles querem reiniciar a histeria da Covid para justificar mais lockdowns, mais censura, mais urnas ilegais, mais votos por correio e trilhões de dólares para seus aliados políticos nas eleições de 2024. Isso soa familiar?". 
+Fala de Trump repercutiu na imprensa internacional. Na época, reportagens sobre as críticas de Trump foram publicadas em sites internacionais (aqui e aqui, em inglês).
+Viralização. Uma publicação no X (antigo Twitter) tinha, até esta quarta-feira (28), 152,8 mil visualizações e 3.700 compartilhamentos.
+Este conteúdo também foi checado por AFP.
+Sugestões de checagens podem ser enviadas para o WhatsApp (11) 97684-6049 ou para o email uolconfere@uol.com.br.
+5 dicas para você não cair em fake news</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Thâmara Kaoru</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:32:54-03:00</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/confere/ultimas-noticias/2024/08/28/video-de-trump-de-2023-sobre-covid-19-circula-como-se-fosse-sobre-mpox.htm</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>EUA não estão realizando operação militar na Venezuela</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>É falso que os Estados Unidos tenham feito uma operação militar na Venezuela em retaliação ao governo de Nicolás Maduro, como sugere um vídeo que circula pelas redes sociais.
+Na verdade, as imagens mostram ações militares da Rússia em meio ao conflito com a Ucrânia.
+O que diz o post
+A publicação contém imagens de veículos militares, como helicópteros, caminhões e tanques, bem como de soldados em ação. Uma parte do post é ilustrada com a frase "Estados Unidos com operação Especial na Venezuela", tendo no fundo uma bandeira dos EUA e um maço de notas de dólar.
+O vídeo tem a seguinte narração: "Em uma madrugada tensa, forças militares dos Estados Unidos estão lançando uma operação relâmpago na Venezuela, com o objetivo de derrubar o regime de Nicolás Maduro".
+O narrador diz ainda que "a operação, liderada pelo general Randy George, chefe do Estado-Maior Conjunto dos Estados Unidos, foi meticulosamente planejada". "À medida que as forças americanas podem dominar rapidamente os pontos estratégicos da Venezuela, o general Randy George fez um pronunciamento direto e contundente: Nicolás Maduro será capturado e executado."
+Por que é falso
+Não existe relato sobre a suposta operação. Nenhum veículo de comunicação com credibilidade relatou qualquer tipo de ação militar dos Estados Unidos na Venezuela (aqui).
+O vídeo mostra ações militares russas. Por meio de busca reversa, verifica-se que as imagens são do Ministério da Defesa da Rússia (veja aqui). Reportagem publicada pelo portal de notícias russo Lenta.ru detalha a operação (aqui, em russo). "O Ministério da Defesa russo exibiu um vídeo da transferência de equipamento militar adicional para unidades que repeliam um ataque das Forças Armadas da Ucrânia (AFU) na região de Kursk", diz a reportagem.
+Randy Geroge não é o chefe do Estado-Maior Conjunto dos EUA.  Citado no vídeo, ele ocupa o cargo de chefe do Estado Maior do Exército (aqui, em inglês). Quem ocupa o posto de chefe do Estado-Maior Conjunto dos EUA é o general Charles Brown (aqui, em inglês).
+Eleição na Venezuela sob suspeita após vitória de Nicolás Maduro. Após suspeitas de fraude eleitoral, os Estados Unidos reconheceram Edmundo González Urrutia, opositor de Maduro, como vencedor (aqui e aqui, em inglês).
+Viralização. Até esta quarta-feira (28), uma publicação no TikTok tinha mais de 1 milhão de visualizações, 53 mil curtidas, 2.500 comentários.
+Este conteúdo também foi checado por Estadão.
+Sugestões de checagens podem ser enviadas para o WhatsApp (11) 97684-6049 ou para o email uolconfere@uol.com.br.
+5 dicas para você não cair em fake news</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ricardo Espina</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:10:18-03:00</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/confere/ultimas-noticias/2024/08/28/video-de-suposta-operacao-militar-dos-eua-na-venezuela-e-falso.htm</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>É falso que a vacina AstraZeneca transmita varíola dos macacos</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Publicação mente ao afirmar que a vacina contra a covid-19 fabricada pela AstraZeneca contém varíola dos macacos (em inglês, monkeypox ou mpox). O post destaca um trecho da bula que cita o "adenovírus de chimpanzé" na composição do imunizante e o associa à doença. Na realidade, esse adenovírus não tem qualquer relação com a mpox.
+Conteúdo investigado: Publicação destaca a bula da AstraZeneca e relaciona o item "adenovírus de chimpanzé", que aparece na composição da vacina, com a varíola dos macacos.
+Onde foi publicado: Telegram e X.
+Conclusão do Comprova: É falso que a vacina AstraZeneca tenha varíola dos macacos. Na verdade, o imunizante contém um adenovírus recombinante de chimpanzé, um vírus sem relação com o que causa a mpox. Essa informação foi confirmada pela Agência Nacional de Vigilância Sanitária (Anvisa), Fundação Oswaldo Cruz (Fiocruz) e dois especialistas consultados pelo Comprova.
+O adenovírus usado na vacina serve apenas para carregar o material genético do coronavírus. É assim que a injeção causa uma resposta imunológica na pessoa vacinada, de acordo com Anvisa e Fiocruz.
+O vírus contido na vacina foi modificado para não se replicar no nosso corpo - ou seja, ele não é capaz de causar doenças. Mesmo se fosse, o vírus é da família Adenoviridae, diferente do que causa a mpox, que é da família Poxviridae.
+A reportagem tentou contato com a conta do X e do Telegram que compartilharam o conteúdo, mas não havia espaço para envio de mensagem.
+Falso, para o Comprova, é o conteúdo inventado ou que tenha sofrido edições para mudar o seu significado original e divulgado de modo deliberado para espalhar uma falsidade.
+Alcance da publicação: O Comprova investiga os conteúdos suspeitos com maior alcance nas redes sociais. No Telegram, a publicação teve mais de 5 mil visualizações até o dia 26 de agosto de 2024. Já no X, na mesma data, o conteúdo alcançava a marca de 19,2 mil visualizações, 808 curtidas e 326 compartilhamentos.
+Fontes que consultamos: Anvisa e Ministério da Saúde, instituições que trabalham com o imunizante, além de Fiocruz, AstraZeneca, o professor Aguinaldo Roberto Pinto, do departamento de Microbiologia, Imunologia e Parasitologia da Universidade Federal de Santa Catarina (UFSC), e o médico infectologista Keny Colares, consultor da Escola de Saúde Pública do Ceará (ESP).
+Adenovírus e mpox são vírus diferentes
+Ouvido pelo Comprova, Aguinaldo Roberto Pinto, professor do departamento de Microbiologia, Imunologia e Parasitologia da UFSC, destacou que o adenovírus e a mpox são dois vírus distintos, portanto, não há a possibilidade do imunizante causar a varíola dos macacos.
+Ele explicou que a AstraZeneca é, de fato, feita a partir de um adenovírus que foi isolado de chimpanzés, mas que teve seu genoma modificado em laboratório de modo que não tenha capacidade de se multiplicar em seres humanos, conferindo assim segurança a este tipo de imunizante.
+O professor acrescentou que as vacinas, de modo geral, são produzidas a partir de microrganismos mortos, microorganismos atenuados, RNA mensageiro e tipos de adenovírus que são incapazes de se replicar.
+Relação de mpox com macacos é equivocada
+Apesar de ser popularmente conhecida como "varíola dos macacos", a transmissão da mpox não está relacionada a esses animais. De acordo com o Ministério da Saúde, o nome vem da descoberta inicial do vírus em macacos em um laboratório da Dinamarca, em 1958.
+O Ministério da Saúde destaca que, embora o animal reservatório do vírus - no qual vive e se multiplica o agente causador da mpox - seja desconhecido, os principais associados são roedores, como os esquilos das florestas tropicais da África, principalmente da África Ocidental. Atualmente, a Organização Mundial da Saúde (OMS) também aponta ratos como animais suscetíveis a este tipo de varíola. No entanto, as "transmissões do surto atual, que atingiram mais de 75 países, foram atribuídas à contaminação de pessoa para pessoa, com contato próximo", cita o órgão.
+O médico infectologista e consultor da ESP Keny Colares disse que até o termo monkeypox é inadequado. "Ficou como se fosse um vírus de macacos, mas, na verdade, é uma doença humana", afirmou.
+"Esse vírus foi descoberto pela primeira vez em pessoas que tinham contato com macacos e achava-se que a doença era desse animal. Na verdade, ele é muito mais um vírus que causa doença humana e que, eventualmente, deu em algum macaco e, na época que esse vírus foi descoberto, ganhou esse nome de monkeypox e agora é difícil de voltar atrás", contextualizou.
+Vacina não é mais usada no Brasil
+Segundo a Anvisa, a vacina AstraZeneca, registrada junto ao órgão em março de 2021, teve seu registro válido por três anos, até março de 2024. Quando este registro chegou ao fim, não houve pedido de renovação por parte da empresa e, por isso, a autorização para o uso em território nacional foi cancelada. Ou seja, o imunizante não é mais aplicado no Brasil.
+A agência explicou que foi uma decisão apenas comercial, a eficácia e a segurança da vacina não mudaram.
+A Fiocruz informou que mais de 190 milhões de doses da vacina foram aplicadas no país no período de três anos, e que a vacina "foi considerada uma estratégia eficaz do Ministério da Saúde para salvar vidas em momento de alto risco de doença grave pela covid-19".
+O Ministério da Saúde, em nota publicada no dia 3 de maio de 2024, confirmou que desde dezembro de 2022, com a queda de hospitalizações e mortes em decorrência da covid-19, a Astrazeneca deixou de ser adquirida. A pasta passou a dar preferência para a aquisição de vacina de outras plataformas, "conforme a disponibilidade das produtoras e recomendações da Câmara Técnica Assessora de Imunizações (CTAI)".
+Por que o Comprova investigou essa publicação: O Comprova monitora conteúdos suspeitos publicados em redes sociais e aplicativos de mensagem sobre políticas públicas, saúde, mudanças climáticas e eleições e abre investigações para aquelas publicações que obtiveram maior alcance e engajamento. Você também pode sugerir verificações pelo WhatsApp +55 11 97045-4984.
+Outras checagens sobre o tema: Reuters e Aos Fatos confirmaram que é falso que a vacina AstraZeneca cause varíola dos macacos. O Comprova explicou o que é a mpox, doença que levou a OMS a declarar emergência global.
+Este conteúdo foi investigado por O Povo, NSC, Correio do Estado. A investigação foi verificada por Nexo, A Gazeta, Metrópoles, SBT, SBT News, O Popular, CNN e O Estado de S. Paulo. A checagem foi publicada no site do Projeto Comprova em 27 de agosto de 2024.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Projeto Comprova</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2024-08-27T16:52:02-03:00</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/comprova/ultimas-noticias/2024/08/27/e-falso-que-a-vacina-astrazeneca-transmita-variola-dos-macacos.htm</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>FBI divulga foto da arma usada contra Trump; atirador pesquisou sobre Biden</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>O FBI divulgou nesta quarta-feira (28) fotos da arma utilizada pelo atirador Thomas Crooks contra o ex-presidente dos EUA Donald Trump. A agência também atualizou a situação atual da investigação em entrevista coletiva.
+O que aconteceu
+A primeira foto mostra o rifle utilizado no atentado, estilo AR. Ele possui uma coronha extensível e uma mira óptica.
+Na segunda imagem, a arma aparece desmontada, ao lado da mochila utilizada por Crooks no dia do ataque.
+A terceira foto divulgada pelo FBI mostra dois dispositivos explosivos improvisados. Eles foram encontrados no porta-malas do carro do atirador de 20 anos. A agência informou que o receptor que permitiria que os dispositivos fossem acionados estava desligado. Ainda segundo o FBI, os explosivos "apresentavam vários problemas".
+Um ar-condicionado aparece na quarta imagem divulgada à imprensa. O aparelho teria sido utilizado pelo atirador para subir no telhado do prédio. A foto foi tirada dias após a tentativa de assassinato.
+Pesquisas do atirador
+Thomas Crooks pesquisou na internet, a partir de setembro de 2023, sobre comícios de Trump na Pensilvânia. Kevin Rojek, chefe do escritório de campo do FBI em Pittsburgh, disse que, entre abril e 12 de julho deste ano, o atirador procurou informações sobre eventos de campanha do republicano e também sobre Joe Biden.
+Em 2019, contas vinculadas ao atirador pesquisou sobre dispositivos explosivos. "Como fazer uma bomba com fertilizante" e "como funcionam os detonadores remotos" foram algumas das buscas.
+O FBI também tenta confirmar se comentários antissemitas foram publicados por Crooks.
+Crooks ficou no telhado do prédio por seis minutos antes de abrir fogo, segundo a agência. Ele reforçou que o atirador disparou oito tiros e disse que a polícia disparou dois: um tiro do atirador do Serviço Secreto e um de um policial local.
+O FBI disse aos jornalistas que o motivo para o atentado ainda segue em investigação. Também não há informações no momento sobre outras pessoas terem colaborado com Thomas Crooks.
+Houve um "planejamento detalhado do ataque", disse Kevin Rojek, chefe do escritório de campo do FBI em Pittsburgh. "Quando esse evento foi anunciado, o comício de Trump foi anunciado, no início de julho, ele ficou hiperfocado naquele evento específico e o viu como um alvo de oportunidade", disse.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:47:14-03:00</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:55:27-03:00</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/internacional/ultimas-noticias/2024/08/28/fbi-divulga-fotos-da-arma-utilizada-em-atentado-contra-trump.htm</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Primeiro apoiador de Trump a invadir o Capitólio recebe pena de prisão</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Primeiro apoiador de Trump a invadir o Capitólio recebe pena de prisão - Mais de quatro anos após invasão, Michael Sparks foi condenado a quatro anos e cinco meses de prisão, além de uma multa de 2 mil dólares. Antes de saber a sentença, homem disse ainda crer que eleição 2020 foi fraudada.Um homem do estado americano do Kentucky, que foi o primeiro manifestante a invadir o Capitólio dos EUA durante o ataque por apoiadores do ex-presidente Donald Trump em 2021, foi condenado nesta terça-feira (27/08) a mais de quatro anos de prisão.
+Um policial que tentou conter Michael Sparks com gás pimenta o descreveu como um dos incentivadores da insurreição que ocorreu em 6 de janeiro de 2021.
+A sessão do Congresso americano para certificar a vitória eleitoral do democrata Joe Biden foi interrompida menos de um minuto depois de Sparks ter invadido o edifício através de uma janela quebrada.
+Sparks, de 47 anos, juntou-se depois a outros manifestantes na perseguição de um policial que subia lances de escadas.
+"Eleição fraudada"
+Antes de conhecer a sentença, o apoiador de Trump disse ao juiz que ainda acredita que a eleição presidencial de 2020 tenha sido marcada por fraude e "completamente retirada do povo americano", noticiou a agência de notícias Associated Press (AP).
+"Lamento que o que aconteceu naquele dia não tenha ajudado ninguém. Sinto remorsos pelo nosso país estar no estado em que se encontra", frisou.
+O juiz distrital dos EUA Timothy Kelly, que condenou Sparks a quatro anos e cinco meses de prisão, além de uma multa de 2 mil dólares (R$ 11 mil), destacou que não havia nada de patriótico no seu papel proeminente no que classificou como uma "desgraça nacional".
+"Acho mesmo que não tem noção de toda a gravidade do que aconteceu naquele dia e, francamente, toda a seriedade do que fez", acrescentou o juiz.
+Endossadas por Trump milhares de pessoas invadiram o Capitólio para tentar impedir a certificação da vitória de Biden, alegando fraude. Nunca nenhuma prova de fraude foi apresentada.
+Os procuradores federais haviam recomendado uma pena de prisão de quatro anos e nove meses para Sparks, um ex-operário de Cecilia, Kentucky. O advogado de defesa, Scott Wendelsdorf, por outro lado, havia pedido ao juiz que condenasse Sparks a um ano de prisão domiciliar.
+Um júri condenou Sparks por todas as seis acusações que enfrentava, incluindo uma de crime de interferência com a polícia durante uma desordem civil.
+Chamada à guerra civil
+Nas semanas que antecederam o ataque de 6 de janeiro de 2021, Sparks utilizou as redes sociais para promover teorias da conspiração sobre fraude eleitoral e defender uma guerra civil.
+Mais de 1.400 pessoas foram acusadas de crimes federais relacionados com os distúrbios no Capitólio, e aproximadamente 950 foram condenadas. Mais de 600 delas receberam penas de prisão que variam entre alguns dias e 22 anos.
+Cinco pessoas morreram em decorrência do ataque ao Capitólio, incluindo um policial que foi espancado, um manifestante que foi baleado e três outras pessoas em meio ao tumulto.</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:43:00-03:00</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/deutschewelle/2024/08/28/primeiro-apoiador-de-trump-a-invadir-o-capitolio-recebe-pena-de-prisao.htm</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Kamala e Walz iniciam turnê de ônibus pela Geórgia com o aumento das esperanças dos democratas</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>WASHINGTON (Reuters) - A candidata democrata à Presidência dos Estados Unidos, Kamala Harris, e o seu companheiro de chapa, Tim Walz, vão fazer campanha em conjunto nesta quarta-feira no Estado da Geórgia, local de magra vitória dos democratas em 2020 e que pode ter um papel decisivo na eleição presidencial deste ano.
+A disputa de 2024 se alterou dramaticamente desde que Kamala assumiu como a candidata do partido no mês passado e ela espera motivar os eleitores negros, um terço do eleitorado na Geórgia, que devem ser cruciais para a vitória no Estado.Kamala e Walz vão sair, de ônibus, pelo sul da Geórgia, onde mora a maior parte da população negra do Estado e onde a campanha adicionou funcionários e abriu escritórios de campo.
+Antes de o presidente Joe Biden desistir da sua reeleição no mês passado e endossar a vice-presidente Kamala Harris, as pesquisas de opinião mostravam o candidato republicano Donald Trump com uma clara vantagem na Geórgia, com os eleitores negros desiludidos com os democratas.Desde então, contudo, Kamala foi consistentemente ganhando espaço nas pesquisas nacionais e recebeu mais de 500 milhões de dólares em doações. As pesquisas mais recentes, compiladas pela FiveThirtyEight, mostram Kamala bem perto de Trump, 46% contra 46,6% na Geórgia, queda sensível se comparada com a vantagem de 5 pontos percentuais que Trump tinha antes da entrada de Kamala na disputa.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:38:10-03:00</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/reuters/2024/08/28/kamala-e-walz-iniciam-turne-de-onibus-pela-georgia-com-o-aumento-das-esperancas-dos-democratas.htm</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>'Não podemos repetir a Dilma', diz Armínio Fraga sobre Galípolo no BC</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>O economista Armínio Fraga afirmou que Gabriel Galípolo deve tomar cuidado para não repetir o governo Dilma Rousseff.
+Galípolo, diretor de política monetária do Banco Central, foi indicado nesta quarta-feira (28) pelo presidente Luiz Inácio Lula da Silva para ocupar a presidência da autarquia. Ele vai substituir Roberto Campos Neto a partir do ano que vem.
+"Nosso país tem uma certa dificuldade de aprender. Não podemos repetir a Dilma", disse Fraga à coluna.
+O economista, que comandou o BC entre 1999 e 2002, refere-se a um período em que o então presidente do banco, Alexandre Tombini, deu uma guinada na política monetária e cortou os juros, contrariando todas as expectativas.
+Tratava-se de uma orientação política de Dilma, que havia assumido com o compromisso de reduzir a taxa Selic. O movimento foi um desastre e provocou um descontrole das expectativas inflacionárias e, posteriormente, novo ciclo de aumento dos juros.
+Galípolo foi secretário-executivo do ministro da Fazenda, Fernando Haddad, e é da confiança de Lula. O mandatário vem criticando a alta taxa de juros do país e já afirmou que, com um novo comandante no BC, o banco teria uma "nova filosofia".
+Fraga afirma que a atuação do presidente do BC é limitada pela legislação, pelas resistências do mercado, que reage quando há interferências políticas no órgão, e também pela própria política.
+"Se o BC perde o controle da inflação por causa de uma decisão errada, vai ter cobrança da população e queda da popularidade do governo", explica.
+Para o economista, o principal problema do Brasil hoje não está na política monetária, mas na política fiscal frouxa, que dificulta o trabalho de BC de baixar os juros.
+Tombini ou Meirelles?
+Para Tony Volpon, ex-diretor do Banco Central, a proximidade entre Galípolo e Lula pode ser um trunfo se o novo presidente do BC souber construir uma relação parecida com a que existia entre Lula e Henrique Meirelles.
+O economista Henrique Meirelles comandou o Banco Central durante os dois primeiros mandatos do petista.
+"Temos duas possibilidades: uma relação Dilma - Tombini ou Lula - Meirelles. O Meirelles conseguia explicar para o Lula quando era preciso subir os juros", afirmou Volpon.
+Ele acredita que a segunda possibilidade é a mais provável dadas as declarações e os posicionamentos de Galípolo durante esse período em que atuou como diretor do Banco Central.
+Volpon também aposta numa redução dos conflitos entre Lula e o BC. O presidente costuma atacar o atual comandante do banco, Roberto Campos Neto, que foi indicado por seu antecessor, Jair Bolsonaro, provocando muita volatilidade no preço dos ativos.
+Para Alexandre Schwartsman, ex-diretor do Banco Central, o nome de Galípolo já era esperado pelo mercado, mas faltaria qualificação acadêmica, além dos riscos de interferência política. "Ele vai ter que pagar um pedágio e construir credibilidade. Se não pagar, o dólar vai dar um salto", diz o economista.
+A indicação de Galípolo ainda precisa ser aprovada pelo Senado.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Raquel Landim</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:36:15-03:00</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/raquel-landim/2024/08/28/nao-podemos-repetir-a-dilma-diz-arminio-fraga-sobre-galipolo-no-bc.htm</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Adormeci em sabatina de Nunes</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Um dos operadores da campanha de Ricardo Nunes define a ascensão de Pablo Marçal nas pesquisas como "um despertador". Nessa versão, o prefeito de São Paulo teria acordado para a urgência de uma reação. Com uma dúvida insone, sintonizei na entrevista de Nunes à GloboNews. Asseguro que tentei assistir até o fim. Mas confesso que adormeci.
+Com o mesmo carisma de uma pedra de gelo, o prefeito castigou as pálpebras da audiência. O timbre evasivo e escorregadio teve o efeito de um barbitúrico. O sonífero revelou-se irresistível no trecho em que Nunes foi questionado sobre o desempenho precário do município no último Ideb, o índice que mede a qualidade do ensino nas escolas.
+A nota de São Paulo no ano passado foi 5,6, abaixo da média nacional de 5,7. Nunes atribuiu o flagelo à pandemia da covid. Mas não soube explicar por que cidades com arcas bem menores que as paulistanas e submetidas ao mesmo vírus tiveram melhor desempenho. 
+Na manhã desta quarta-feira, fui atrás do vídeo com a reprodução da sabatina de Nunes. A peça contém outras ofensas à inteligência alheia. Por exemplo: na contramão do relato de inúmeras vítimas, o prefeito negou que a prefeitura tenha dificultado o acesso ao aborto legal na cidade de São Paulo ao suspender o serviço no Hospital Vila Nova Cachoeirinha, unidade de referência. 
+De resto, Nunes desconversou sobre temas espinhosos como a presença do PCC nas empresas concessionárias de ônibus de São Paulo e a suspeita do seu envolvimento e de uma empresa de sua família na máfia das creches. A reiteração de mais do que já foi dito não faz desaparecer o mesmo que todos sabem estar sob investigação. 
+Nunes avalia que a simples aparição de Bolsonaro na sua propaganda eleitoral televisiva, que começa na sexta-feira, potencializará sua votação junto ao eleitorado conservador. Quer dizer: quem esperava por uma reação pessoal do prefeito deve puxar uma cadeira. Ou um ronco.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Josias de Souza</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2024-08-28T08:07:58-03:00</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/josias-de-souza/2024/08/28/adormeci-em-sabatina-de-nunes.htm</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Marçal deve recorrer ao STF para tentar retomar suas redes sociais</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A campanha de Pablo Marçal (PRTB) decidiu recorrer ao plenário do TRE (Tribunal Regional Eleitoral) contra decisão individual do desembargador que manteve suspensos os perfis dele nas redes sociais.
+Ao mesmo tempo, Marçal deve também ingressar no STF (Supremo Tribunal Federal) para derrubar a liminar que tirou suas contas do ar. O argumento estudado é que a suspensão não é constitucional e configura censura prévia. No Supremo, a campanha de Marçal quer pedir para cassar a liminar porque a considera inconstitucional.
+Dos sete votos do TRE, a equipe do candidato conta com cinco favoráveis. Usa julgamentos anteriores para embasar seu recurso.
+Sobre os cortes monetizados, a campanha de Marçal diz que não foi demonstrado o abuso do poder econômico, ou seja não há provas de que o ex-coach tenha pagado para replicarem seus conteúdos.
+No sábado (24), a Justiça suspendeu as contas de Marçal em uma decisão liminar (provisória) de primeira instância.
+O juiz eleitoral Antonio Maria Patiño Zorz acolheu o argumento de que Marçal comete abuso econômico ao promover cortes monetizados.
+O pedido foi feito pelo PSB da candidata Tabata Amaral.
+A campanha de Marçal ingressou no domingo (25) com mandado de segurança no TRE, mas o desembargador manteve a decisão inicial.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Thais Bilenky</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024-08-28T14:40:36-03:00</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/thais-bilenky/2024/08/28/marcal-deve-recorrer-ao-stf-pra-retomar-redes-sociais.htm</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Reinaldo: Tarcísio está disposto a fazer 'M de Marcola' contra a esquerda?</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Reinaldo Azevedo</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:12:27-03:00</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/reinaldo-azevedo/2024/08/28/reinaldo-tarcisio-esta-disposto-a-fazer-m-de-marcola-contra-a-esquerda.htm</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vale escolhe presidente em processo que deixou feridas expostas </t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A Vale anunciou nesta segunda-feira (26) Gustavo Pimenta como próximo presidente da empresa. O executivo foi eleito pelo Conselho de Administração, de forma unânime, "ao fim de rigoroso processo de seleção suportado por empresa de padrão internacional, em conformidade com o Estatuto Social da Vale, políticas corporativas, regulamento interno do colegiado e legislações aplicáveis", informou a companhia.
+A troca na Vale deixou uma série de feridas expostas. O presidente Lula tentou emplacar Guido Mantega na empresa, nome que foi rejeitado e levantou uma série de críticas pela tentativa de interferência no processo. Como mostrou a coluna, o ex-tesoureiro do PT João Vaccari também tentou impor o ex-presidente do BB Paulo Caffarelli na vaga mais recentemente.
+O nome escolhido tinha o apoio do ministro Alexandre Silveira (Minas e Energia). Oficialmente, o ministro nega que tivesse predileção, mas como antecipou a coluna os preferidos eram Luis Henrique Guimarães, ex-CEO da Cosan, ou Gustavo Pimenta. Guimarães se inviabilizou porque sua indicação daria muita força para a Cosan. Ele tinha o apoio de Rubens Ometto, presidente do conselho de administração da Cosan.
+A Vale tem o maior salário pago a um executivo no Brasil - R$ 50 milhões ao ano -, o que tornava a vaga ainda mais competitiva.
+O atual Presidente da Vale, Eduardo Bartolomeo, deixa o cargo após um racha no conselho e críticas do presidente Lula à sua condução.
+"Estou muito otimista com a escolha de Gustavo Pimenta para liderar a Vale. É um profissional com reconhecida competência e compromisso com a Vale do futuro, uma companhia que se torna mais segura e confiável a cada dia. Com Gustavo Pimenta, acredito que a Vale seguirá firme em sua jornada rumo à liderança na mineração sustentável e na criação de valor para todos os stakeholders", disse.
+Os conselheiros independentes José Penido e Paulo Hartung foram contra a troca e, em conversas reservadas, ameaçavam deixar a empresa caso o governo impusesse um nome ou a escolha recaísse sobre alguém sem conhecimento do setor.
+Dois conselheiros da Vale pediram demissão em meio a esse desgaste. José Luciano Duarte Penido saiu atirando. Em carta, disse que o processo sucessório sofria "nefasta interferência política". Vera Marie Inkster também deixou o colegiado sem dar declarações.
+A escolha de Pimenta é considerada uma resposta de que não se aceita interferência política.
+"Agradeço a confiança do Conselho para liderar a Vale nesse novo ciclo. Vamos juntos nessa jornada, intensificando o diálogo com todos os nossos stakeholders e priorizando a segurança das pessoas, das operações e do meio ambiente. Tenho certeza de que seguiremos avançando em nossa missão, com foco em geração e distribuição de valor, elevando a Vale a patamares ainda mais altos", respondeu Pimenta, segundo o Fato Relevante da empresa.
+Ele ocupa atualmente a vaga de vice-presidente executivo de finanças e relações com investidores da empresa.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Andreza Matais</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024-08-26T23:05:09-03:00</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2024-08-27T09:35:05-03:00</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/andreza-matais/2024/08/26/vale-escolhe-presidente-em-processo-que-deixou-feridas-expostas.htm</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Pegadas de mesma espécie de dinossauros são encontradas no Brasil e África</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Pesquisadores de uma universidade no Texas (EUA) revelam a descoberta de pegadas tanto no Nordeste do Brasil como em Camarões da mesma espécie de dinossauro, sugerindo um corredor de migração desses animais. A constatação seria mais um indício de que os continentes de ambos os lados do Atlântico já estiveram unidos, há milhões de anos.
+De acordo com um comunicado da Southern Methodist University de Dallas, uma equipe internacional de pesquisadores liderada pelo paleontólogo Louis Jacobs, encontrou "conjuntos iguais de pegadas de dinossauros do início do Cretáceo no que hoje são dois continentes diferentes".
+"Mais de 260 pegadas foram descobertas no Brasil e em Camarões, mostrando onde os dinossauros terrestres puderam cruzar livremente entre a América do Sul e a África há milhões de anos, antes que os dois continentes se separassem", afirmam.
+"Determinamos que, em termos de idade, essas pegadas eram semelhantes", disse Jacobs. "Em seus contextos geológicos e de placas tectônicas, elas também eram semelhantes. Em termos de formas, elas são quase idênticas", explicou.
+As pegadas, impressas na lama e no lodo ao longo de rios e lagos antigos, foram encontradas a mais de 6.000 quilômetros de distância umas das outras. "Os dinossauros fizeram os rastros há 120 milhões de anos em um único supercontinente conhecido como Gondwana - que se separou da massa de terra maior de Pangea", disse Jacobs.
+"Uma das conexões geológicas mais jovens e mais estreitas entre a África e a América do Sul foi o cotovelo do nordeste do Brasil aninhado contra o que hoje é a costa de Camarões ao longo do Golfo da Guiné", explicou Jacobs. "Os dois continentes eram contínuos ao longo desse trecho estreito, de modo que os animais de ambos os lados dessa conexão poderiam se mover através dela."
+A maioria dos fósseis de dinossauros foi criada por dinossauros terópodes de três dedos. Alguns também foram provavelmente criados por saurópodes ou ornitísquios, disse Diana Vineyard, coautora do estudo.
+Fizeram ainda parte do estudo os pesquisadores Lawrence J. Flynn, do Departamento de Biologia Evolutiva Humana da Universidade de Harvard, Christopher R. Scotese, do Departamento de Ciências da Terra e Planetárias da Universidade Northwestern, e Ismar de Souza Carvalho, da Universidade Federal do Rio de Janeiro e do Centro de Geociências.
+O estudo foi publicado pelo New Mexico Museum of Natural History &amp; Science em homenagem ao falecido paleontólogo Martin Lockley, que dedicou grande parte de sua carreira ao estudo de rastros e pegadas de dinossauros.
+Segundo os pesquisadores, a África e a América do Sul começaram a se dividir há cerca de 140 milhões de anos, fazendo com que aberturas na crosta terrestre, chamadas de fendas, se abrissem ao longo de pontos fracos pré-existentes.
+"À medida que as placas tectônicas sob a América do Sul e a África se separavam, o magma do manto da Terra subia à superfície, criando uma nova crosta oceânica à medida que os continentes se afastavam um do outro. E, por fim, o Oceano Atlântico Sul preencheu o vazio entre esses dois continentes recém-formados", explica o estudo.
+Sinais de alguns desses grandes eventos ficaram evidentes entre os dois locais onde as pegadas de dinossauros foram encontradas - na região da Borborema, no nordeste do Brasil, e na Bacia de Koum, no norte de Camarões.
+Juntamente com rastros de dinossauros, esses sedimentos contêm pólen fóssil que indica uma idade de 120 milhões de anos.
+Antes que a conexão continental entre a África e a América do Sul fosse cortada, "rios corriam e lagos se formavam nas bacias", disse Jacobs. "As plantas alimentavam os herbívoros e sustentavam uma cadeia alimentar. Os sedimentos lamacentos deixados pelos rios e lagos contêm pegadas de dinossauros, inclusive de carnívoros, documentando que esses vales fluviais poderiam fornecer caminhos específicos para a vida viajar pelos continentes há 120 milhões de anos", completou.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Jamil Chade</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2024-08-28T12:07:01-03:00</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/jamil-chade/2024/08/28/pegadas-de-mesma-especie-de-dinossauros-sao-encontradas-no-brasil-e-africa.htm</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Fator Marçal e vista grossa de big techs desafiam Justiça Eleitoral</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Dentre todos os desafios da Justiça Eleitoral na campanha deste ano, o destaque vai para Pablo Marçal. O ex-coach deu um nó na já atribulada relação entre o Judiciário e as plataformas de redes sociais quando resolveu, com alguma conivência de empresas, driblar a ordem do TRE (Tribunal Regional Eleitoral) de suspender os perfis ligados a ele.
+O influencer teria monetizado a divulgação de vídeos de campanha nas redes sociais. A ordem foi para suspender perfis de Marçal no Instagram, no X, no TikTok, no Discord e no YouTube. A medida também atinge o site oficial da candidatura.
+O X se recusou a cumprir a decisão e pelo menos até ontem continuava no ar o perfil oficial do candidato. O Instagram baniu o perfil oficial, mas manteve outros em atividade.
+Em entrevista publicada segunda-feira (26) na Folha de S.Paulo, o ex-coach se vangloriou do feito ao constatar que a conta criada mais recentemente já contava com três milhões de seguidores. "Pra você ver a besteira que eles fizeram. E está com mais engajamento que a primeira", disse ao jornal.
+A decisão do TRE deu margem para o aparecimento de outros perfis de Marçal. "Destaco que não se está, nesta decisão, a se tolher a criação de perfis para propaganda eleitoral do candidato requerido, mas apenas suspender aqueles que buscaram a monetização dos "cortes" por meio de terceiros interessados", escreveu o juiz Antonio Maria Patiño Zorz.
+O desafio é: como controlar quais perfis monetizam a divulgação de vídeos? O candidato jura que pagou internautas em troca da divulgação no passado, mas teria abandonado a prática antes mesmo do início oficial da campanha, em 16 de agosto. Questionada pela coluna, o TRE-SP informou que "não se manifesta sobre casos concretos, cabendo ao autor da ação manifestar eventual inconformismo". Instagram e X também não quiseram falar sobre o assunto.
+A Justiça Eleitoral tem poder de polícia para coibir eventuais propagandas extemporâneas ou irregulares. Neste ano, essa atribuição foi reforçada por uma resolução do TSE (Tribunal Superior Eleitoral) que deu aos juízes o poder de determinar imediata retirada de conteúdo da internet que, em sua forma ou seu meio de veiculação, esteja em desacordo com o disposto nas regras eleitorais.
+Ainda assim, a Justiça Eleitoral parece não ter ferramentas suficientes para controlar condutas como a de Marçal. Menos de duas semanas após o início das campanhas, a preocupação com o caos nas redes sociais se reflete na agenda da presidente do TSE, ministra Cármen Lúcia.
+Hoje (28), ela tem encontro marcado com o vice-presidente da área de Integridade e Segurança do Google, David Graff. A pauta divulgada fala em "assuntos relacionados aos esforços conjuntos que têm sido realizados entre o Google e o TSE em prol da integridade do processo eleitoral brasileiro". A coluna procurou a assessoria de imprensa do Google, que não quis dar mais detalhes.
+Ontem, a ministra se reuniu como o presidente da Anatel, Carlos Manuel Baigorri, para tratar de acordos de cooperação vigentes da Anatel com o TSE para combate às fake news nas eleições.
+Procurada pela coluna, a assessoria de imprensa do tribunal não informou detalhes sobre as audiências, nem se estão programados encontros com representantes de outras plataformas.
+A ação que ensejou a decisão do TRE-SP acusa o ex-coach de abuso de poder econômico, com possível uso indevido dos meios de comunicação. O tribunal paulista deve julgar o recurso proposto por Marçal e, qualquer que seja a decisão, o caso promete desaguar no TSE, também na forma de recurso. Em caso de condenação, se o candidato for eleito, ele poderia ser impedido de assumir o cargo.
+Em outras frentes judiciais, Marçal pode inclusive ser preso se houver condenação. Questionado pela Folha se ele teme essa medida, ele deixou claro que não tem nada a perder: "Não, nem tenho medo de cadeia, zero".</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Carolina Brígido</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2024-08-28T05:30:00-03:00</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2024-08-28T13:46:07-03:00</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/carolina-brigido/2024/08/28/fator-marcal-e-vista-grossa-de-big-techs-desafiam-justica-eleitoral.htm</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Jornalistas da TV Brasil anunciam que vão cruzar os braços e ameaçam greve</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Jornalistas do Distrito Federal, de São Paulo e do Rio de Janeiro da Empresa Brasil de Comunicação (EBC), pertencente ao governo federal, anunciaram que vão cruzar os braços na próxima terça (3), com possibilidade de entrarem em greve por tempo indeterminado.
+A paralisação da área de jornalismo deve afetar a TV Brasil, a Agência Brasil, a Rádio Nacional, a Rádio Nacional da Amazônia, a Rádio MEC e a Radioagência Nacional. Mas também veículos estatais como Canal Gov, Agência Gov e a Voz do Brasil.
+Segundo os trabalhadores, o novo plano de cargos e salários da empresa rebaixa os salários da carreira de jornalismo em comparação a outros grupos de trabalhadores. Eles receberiam cerca 12% a menos que outros profissionais com diploma superior - hoje, há isonomia.
+"Esse plano não apenas rebaixa a carreira dos jornalistas da EBC, em relação a outras de nível superior, como abre um precedente perigoso para que a jornada específica de jornalistas do setor privado também seja atacada, com a ideia de salário-hora", afirmou Pedro Rafael Vilela, coordenador-geral do Sindicato dos Jornalistas Profissionais do Distrito Federal.
+Procurada pela coluna, a Presidência da EBC afirmou, que ainda não foi notificada oficialmente sobre a paralisação.
+Em nota, a empresa afirmou que o novo Plano de Carreiras e Remunerações foi aprovado pelo seu Conselho de Administração, na última sexta (23), e será analisado pela Secretaria de Comunicação Social da Presidência da República (Secom) e pela Secretaria de Coordenação de Governanças das Empresas Estatais do Ministério da Gestão.
+"O principal objetivo do novo PCR é corrigir assimetrias e permitir uma ascensão mais eficiente na carreira", afirma a EBC. "A empresa apresentou proposta de diminuição do número de níveis da tabela de progressão, bem como de aumento do salário-base das carreiras, além de atualizações nos descritivos de algumas atividades."
+A nota defende que a proposta foi construída em diálogo com as entidades representativas dos empregados, mas que "estão mantidas as tratativas" junto a essas entidades.
+O governo Lula vem enfrentando greves e paralisações de servidores públicos por aumentos na remuneração, plano de carreira e melhores condições de trabalho. Professores de universidades federais, profissionais do Ibama e do ICMBio, auditores fiscais do trabalho, entre outras, são algumas das categorias. Defendem que membros de instituições como a Polícia Rodoviária Federal foram prontamente beneficiados apesar de terem ajudado a gestão anterior a agir contra a democracia.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Leonardo Sakamoto</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024-08-28T12:11:21-03:00</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/leonardo-sakamoto/2024/08/28/jornalistas-de-empresa-do-governo-federal-anunciam-que-vao-cruzar-os-bracos.htm</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Bolsonaro não gravou (e talvez não gravará) vídeo para campanha de Nunes</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Faltando dois dias para começar o horário gratuito de rádio e TV, o presidente Jair Bolsonaro (PL) ainda não gravou um vídeo para a campanha de Ricardo Nunes (MDB). E, segundo apurou a coluna, o ex-presidente tem preenchido a agenda dos próximos dias sem esse compromisso previsto.
+Nos bastidores, Bolsonaro demonstra um certo descontentamento com os rumos da campanha do prefeito de São Paulo e, de forma reservada, já até admite que acredita numa vitória da Pablo Marçal (PRTB).
+A avaliação de fontes próximas ao ex-presidente é que a campanha de Nunes demorou para usar o capital político de Bolsonaro e até chegou a desenhar uma estratégia de não colar demais no ex-presidente, para evitar algum tipo de rejeição de um eleitor de centro, por exemplo.
+Já Marçal optou por demonstrar conceitos que o ligam à raiz bolsonarista desde o início e, como consequência, avaliam aliados do ex-presidente, acabou despontando como a "sensação da eleição" paulistana.
+O ex-presidente tem dito que manterá o acordo com Nunes, que foi firmado graças ao presidente do PL, Valdemar Costa Neto, mas também não se omitirá no segundo turno e, se preciso for, subirá no palanque de Marçal.
+A ordem dada pelo ex-presidente a todos os aliados é que em São Paulo é preciso "derrotar o PT e a esquerda", ou seja, usar as forças possíveis no segundo turno para impedir uma vitória de Guilherme Boulos (PSOL).
+Campanha para general Silva e Luna
+Bolsonaro desembarca nesta quarta-feira (28) em Foz do Iguaçu (PR) para participar de atos de campanha do general Joaquim Silva e Luna (PL), que durante a gestão do ex-presidente comandou a Itaipu por dois anos e também presidiu a Petrobras de fevereiro de 2021 a março de 2022.
+Na época, Bolsonaro demitiu o general do comando da Petrobras por conta de divergências na política de preços da estatal. O ex-presidente estava se preparando para a campanha à reeleição e alta do preço dos combustíveis era alvo de críticas.
+Apesar das rusgas, o ex-presidente tem dito que não tem ressentimentos com o general e estará em seu palanque.
+À coluna, Silva e Luna afirmou que em sua campanha vai destacar o desempenho de sua gestão na Itaipu. "Investimos mais de R$ 2,6 bilhões na cidade e na região", disse. Para o general, o ex-presidente pode ajudar a angariar votos.
+"Queremos fazer em Foz o que fizemos quando estivemos na Itaipu em dois anos. E o presidente Bolsonaro me trouxe para cá, governador Ratinho Júnior continua e esse trio soma esforços e gera um selo de garantia para a nossa cidade", afirmou.
+Agenda no Sul até sábado
+Depois de Foz, Bolsonaro continuará até sábado fazendo campanha no Sul do país, passando por cidades como Marechal Cândido Rondon, Umuarama, Maringá e Londrina.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Carla Araújo</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2024-08-28T12:08:10-03:00</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/carla-araujo/2024/08/28/bolsonaro-nao-gravou-e-talvez-nao-gravara-video-para-campanha-de-nunes.htm</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Justiça entende que Leo Dias acusou modelo sem provas e condena jornalista</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>O jornalista Leo Dias foi condenado pela Justiça paulista a pagar uma indenização de R$ 10 mil ao modelo Lucas Castellani (nome artístico de Lucas Batista de Oliveira).
+Em 2021, Castellani foi alvo de uma reportagem na qual o jornalista dizia que ele teria feito ameaças à própria irmã.
+"Ele tocou o terror na irmã dele e ela ficou com medo!", escreveu Leo Dias no portal Metrópoles, também condenado no processo. "Até sequestro e morte ele disse a ela (a irmã) que poderia acontecer".
+O processo
+Na ação, o modelo afirmou que Léo Dias estava assediando de forma agressiva e impertinente a sua família e que ele estava "exausto de suas publicações mentirosas", que o prejudicavam na vida particular e profissional.
+"Leo Dias é conhecido no meio artístico pela coleção inigualável de inimizades construídas. Provavelmente a sua extensa relação de inimigos só encontre paralelo na igualmente impressionante quantidade de processos cíveis e criminais que responde", afirmou Castellani à Justiça.
+Leo Dias e o portal Metrópoles se defenderam no processo afirmando que a reportagem "não trouxe qualquer inverdade".
+"A reportagem tão somente reproduziu, de forma imparcial, relato feito por terceiros", disse à Justiça a advogada Taynara Bueno Drummond, que os representa, ressaltando que a publicação deixava claro que as informações haviam sido prestadas por "fontes próximas à família" do modelo.
+Segundo a defesa, o jornalista não cometeu nenhuma ilicitude ou abuso, "exercendo de maneira plena sua atividade jornalística".
+Condenação em segunda instância
+Leo Dias e o portal foram condenados em primeira instância em 2022, recorreram, mas os desembargadores do Tribunal de Justiça de São Paulo mantiveram a decisão, em julgamento publicado ontem (27 de agosto).
+"A matéria atribuiu ao autor do processo conduta que, em tese, poderia configurar crime, sem averiguar a veracidade dos fatos, e sem munir-se de comprovação", afirmou na decisão o desembargador Marcus Rios Gonçalves, relator do processo. "Para que houvesse tal publicação, era necessário que o jornalista tivesse se munido minimamente de provas do ocorrido."
+Os valores da condenação ainda serão acrescidos de juros e correção monetária.
+Leo Dias e o Metrópoles ainda podem apresentar novo recurso.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Rogério Gentile</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024-08-28T09:56:03-03:00</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/colunas/rogerio-gentile/2024/08/28/justica-entende-que-leo-dias-acusou-modelo-sem-provas-e-condena-jornalista.htm</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>O Brasil hoje é uma disneylândia para a indústria farmacêutica, diz presidente da ANS</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>O presidente da Agência Nacional de Saúde Suplementar (ANS), Paulo Rebello, destaca que o faturamento que a indústria farmacêutica tem obtido as custas de outros elos da cadeia de saúde tem sido um problema para o setor, bem como a alta sinistralidade e os problemas de custos que o setor já vinha tendo que lidar.
+O presidente da ANS avalia que hoje, no Brasil, a judicialização é intensa e distinta em comparação com outros países, e nos últimos anos observamos mudanças que aumentaram a pressão sobre o setor. Ele avalia que atualmente o País se tornou um ambiente muito favorável para a indústria farmacêutica. "O País hoje é uma disneylândia para a indústria farmacêutica, elas ganham muito. Se existe uma prescrição, a operadora precisa fornecer o medicamento, sem a necessidade de uma avaliação prévia sobre sua segurança. Esse é um desafio que precisamos abordar", aponta Rabello.
+Ao Broadcast (sistema de notícias em tempo real do Grupo Estado), ele afirmou que a criação da Lei 14.454 permite que beneficiários de planos de saúde tenham acesso a medicamentos não incorporados pela agência reguladora, desde que haja evidência científica de sua eficácia, criando um cenário desafiador.
+"Isso estimula um mercado amplo sem incentivar a avaliação rigorosa da tecnologia para verificar a efetividade e eficácia dos medicamentos, especialmente aqueles de alto custo e terapias avançadas", disse.
+Para ele, a indústria farmacêutica, buscando contornar normas que limitam suas ações, recorreu à justiça para derrubar uma norma, permitindo-lhes promover seus produtos diretamente às operadoras de saúde. Isso levanta a necessidade de uma discussão mais ampla sobre o financiamento da saúde, considerando que muitas famílias não têm condições de arcar com medicamentos de alto custo.
+"Cerca de 20% das operadoras de saúde não alcançam a metade do faturamento mensal necessário para cobrir o custo de certos medicamentos. Diante da realidade econômica do País, é crucial debater o acesso a tratamentos de saúde", disse.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024-08-28T15:48:00-03:00</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/28/o-brasil-hoje-e-uma-disneylandia-para-a-industria-farmaceutica-diz-presidente-da-ans.htm</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Porto de Santos deve movimentar 180 milhões de t neste ano</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasília, 28 - O Porto de Santos prevê movimentar 180 milhões de toneladas de mercadorias neste ano, segundo o presidente da Autoridade portuária de Santos, Anderson Pomini. "O Porto de Santos corresponde a 30% da corrente comercial brasileira. Em 2023, movimentamos 174 milhões de toneladas, sendo 52% de cargas do agronegócio, e neste ano devemos movimentar 180 milhões de toneladas", afirmou Pomini durante o Fórum Caminhos da Safra, promovido pela Globo Rural. De janeiro a julho, o porto movimentou 105,57 milhões de toneladas de mercadorias, aumento de 9,7% em um ano. Os embarques e desembarques foram liderados por cargas do agronegócio. "Hoje, o nosso modal é dividido em 60% por rodovias, 30% via ferrovias e 10% por dutos", apontou Pomini. Ele destacou que serão investidos R$ 12 bilhões nos próximos cinco anos em infraestrutura do Porto. </t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024-08-28T17:02:00-03:00</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2024/08/28/porto-de-santos-deve-movimentar-180-milhoes-de-t-neste-ano.htm</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Justiça francesa acusa e deixa fundador do Telegram em liberdade sob controle judicial (Promotoria)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Justiça francesa acusa e deixa fundador do Telegram em liberdade sob controle judicial (Promotoria)
+gd-tjc/js/mvv
+© Agence France-Presse</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024-08-28T16:51:55-03:00</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>https://noticias.uol.com.br/ultimas-noticias/afp/2024/08/28/justica-francesa-acusa-e-deixa-fundador-do-telegram-em-liberdade-sob-controle-judicial-promotoria.htm</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>UOL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
